--- a/Test Case/Prapancha/Test Case- EMR IP.xlsx
+++ b/Test Case/Prapancha/Test Case- EMR IP.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEM\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EB32EC-262D-4F34-9541-71F0F8CA0607}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="EMR IP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="479">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1698,39 +1692,6 @@
     <t>MED_EMR IP_TC_078</t>
   </si>
   <si>
-    <t>MED_EMR IP_TC_079</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_080</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_081</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_082</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_083</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_084</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_085</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_086</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_087</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_088</t>
-  </si>
-  <si>
-    <t>MED_EMR IP_TC_089</t>
-  </si>
-  <si>
     <t>MED_EMR IP_TC_013</t>
   </si>
   <si>
@@ -1738,13 +1699,46 @@
   </si>
   <si>
     <t>MED_EMR IP_TC_039</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_001</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_002</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_003</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_004</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_005</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_006</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_048</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_049</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_050</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_051</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_052</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1910,9 +1904,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1920,6 +1911,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2235,24 +2229,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R732"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28" style="22" customWidth="1"/>
+    <col min="1" max="1" width="28" style="21" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="15" customWidth="1"/>
@@ -2266,7 +2260,7 @@
     <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2312,9 +2306,9 @@
       </c>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>401</v>
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="45">
+      <c r="A2" s="9" t="s">
+        <v>468</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>338</v>
@@ -2352,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="30">
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2388,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="5" customFormat="1">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2421,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="30">
       <c r="A5" s="9"/>
       <c r="D5" s="23"/>
       <c r="E5" s="7">
@@ -2445,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="150">
       <c r="A6" s="9"/>
       <c r="D6" s="23"/>
       <c r="E6" s="7">
@@ -2459,7 +2453,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="30">
       <c r="A7" s="9"/>
       <c r="D7" s="23"/>
       <c r="E7" s="7">
@@ -2473,7 +2467,7 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="30" customHeight="1">
       <c r="A8" s="9"/>
       <c r="D8" s="23"/>
       <c r="E8" s="7">
@@ -2487,9 +2481,9 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>402</v>
+    <row r="9" spans="1:18" ht="30">
+      <c r="A9" s="9" t="s">
+        <v>469</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>338</v>
@@ -2508,7 +2502,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="30">
       <c r="A10" s="9"/>
       <c r="D10" s="24"/>
       <c r="E10" s="7">
@@ -2525,7 +2519,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="9"/>
       <c r="D11" s="24"/>
       <c r="E11" s="7">
@@ -2539,7 +2533,7 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="30">
       <c r="A12" s="9"/>
       <c r="D12" s="24"/>
       <c r="E12" s="7">
@@ -2553,7 +2547,7 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="45" customHeight="1">
       <c r="A13" s="9"/>
       <c r="D13" s="24"/>
       <c r="E13" s="7">
@@ -2567,7 +2561,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="30">
       <c r="A14" s="9"/>
       <c r="D14" s="24"/>
       <c r="E14" s="7">
@@ -2581,7 +2575,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="30">
       <c r="A15" s="9"/>
       <c r="D15" s="24"/>
       <c r="E15" s="7">
@@ -2595,7 +2589,7 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="9"/>
       <c r="D16" s="24"/>
       <c r="E16" s="7">
@@ -2609,9 +2603,9 @@
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>403</v>
+    <row r="17" spans="1:11" ht="105">
+      <c r="A17" s="9" t="s">
+        <v>470</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>338</v>
@@ -2633,7 +2627,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="7"/>
       <c r="D18" s="23"/>
       <c r="E18" s="15">
@@ -2647,7 +2641,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="D19" s="23"/>
       <c r="E19" s="15">
@@ -2661,7 +2655,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="D20" s="23"/>
       <c r="E20" s="15">
@@ -2675,9 +2669,9 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="210" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>404</v>
+    <row r="21" spans="1:11" ht="210">
+      <c r="A21" s="9" t="s">
+        <v>471</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>338</v>
@@ -2697,7 +2691,7 @@
       <c r="G21" s="7"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30">
       <c r="A22" s="7"/>
       <c r="D22" s="24"/>
       <c r="E22" s="7">
@@ -2714,9 +2708,9 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>405</v>
+    <row r="23" spans="1:11" ht="45" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>472</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>338</v>
@@ -2741,9 +2735,9 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>406</v>
+    <row r="24" spans="1:11" ht="120">
+      <c r="A24" s="9" t="s">
+        <v>473</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>338</v>
@@ -2766,7 +2760,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7">
@@ -2783,9 +2777,9 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>476</v>
+    <row r="26" spans="1:11" ht="90">
+      <c r="A26" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>338</v>
@@ -2808,7 +2802,7 @@
       </c>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7">
@@ -2822,9 +2816,9 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>407</v>
+    <row r="28" spans="1:11" ht="60" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>338</v>
@@ -2846,7 +2840,7 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7">
@@ -2860,7 +2854,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="30">
       <c r="A30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7">
@@ -2874,7 +2868,7 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="105">
       <c r="A31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7">
@@ -2888,7 +2882,7 @@
       </c>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="45">
       <c r="A32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7">
@@ -2902,7 +2896,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="60" customHeight="1">
       <c r="A33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7">
@@ -2916,7 +2910,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="30">
       <c r="A34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7">
@@ -2930,7 +2924,7 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="30">
       <c r="A35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7">
@@ -2944,7 +2938,7 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7">
@@ -2961,9 +2955,9 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>408</v>
+    <row r="37" spans="1:11" ht="120">
+      <c r="A37" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>338</v>
@@ -2988,9 +2982,9 @@
       </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>409</v>
+    <row r="38" spans="1:11" ht="105">
+      <c r="A38" s="9" t="s">
+        <v>404</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>338</v>
@@ -3009,7 +3003,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7">
@@ -3026,7 +3020,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="45" customHeight="1">
       <c r="A40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7">
@@ -3040,7 +3034,7 @@
       </c>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="30">
       <c r="A41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7">
@@ -3054,7 +3048,7 @@
       </c>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7">
@@ -3068,7 +3062,7 @@
       </c>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7">
@@ -3082,7 +3076,7 @@
       </c>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7">
@@ -3096,9 +3090,9 @@
       </c>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>410</v>
+    <row r="45" spans="1:11" ht="105">
+      <c r="A45" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>338</v>
@@ -3117,7 +3111,7 @@
       </c>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="45" customHeight="1">
       <c r="A46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7">
@@ -3134,7 +3128,7 @@
       </c>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30">
       <c r="A47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7">
@@ -3148,7 +3142,7 @@
       </c>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="30">
       <c r="A48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7">
@@ -3162,9 +3156,9 @@
       </c>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>411</v>
+    <row r="49" spans="1:11" ht="105">
+      <c r="A49" s="9" t="s">
+        <v>406</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>338</v>
@@ -3183,7 +3177,7 @@
       </c>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="45">
       <c r="A50" s="9"/>
       <c r="E50" s="7">
         <v>2</v>
@@ -3199,9 +3193,9 @@
       </c>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>412</v>
+    <row r="51" spans="1:11" ht="105">
+      <c r="A51" s="9" t="s">
+        <v>465</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>338</v>
@@ -3221,7 +3215,7 @@
       <c r="G51" s="7"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="150">
       <c r="A52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7">
@@ -3235,9 +3229,9 @@
       </c>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>413</v>
+    <row r="53" spans="1:11" ht="105">
+      <c r="A53" s="22" t="s">
+        <v>407</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>338</v>
@@ -3257,7 +3251,7 @@
       <c r="G53" s="7"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="45" customHeight="1">
       <c r="A54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7">
@@ -3271,9 +3265,9 @@
       </c>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>477</v>
+    <row r="55" spans="1:11" ht="150">
+      <c r="A55" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>338</v>
@@ -3293,7 +3287,7 @@
       <c r="G55" s="7"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="120">
       <c r="A56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7">
@@ -3307,9 +3301,9 @@
       </c>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>414</v>
+    <row r="57" spans="1:11" ht="135">
+      <c r="A57" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>338</v>
@@ -3331,7 +3325,7 @@
       </c>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="45">
       <c r="A58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7">
@@ -3345,9 +3339,9 @@
       </c>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>415</v>
+    <row r="59" spans="1:11" ht="45" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>338</v>
@@ -3369,9 +3363,9 @@
       </c>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" ht="345" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>416</v>
+    <row r="60" spans="1:11" ht="345">
+      <c r="A60" s="9" t="s">
+        <v>411</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>338</v>
@@ -3393,7 +3387,7 @@
       </c>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7">
@@ -3407,7 +3401,7 @@
       </c>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7">
@@ -3421,7 +3415,7 @@
       </c>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="45" customHeight="1">
       <c r="A63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7">
@@ -3435,7 +3429,7 @@
       </c>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7">
@@ -3449,7 +3443,7 @@
       </c>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7">
@@ -3463,9 +3457,9 @@
       </c>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>417</v>
+    <row r="66" spans="1:11" ht="135">
+      <c r="A66" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>338</v>
@@ -3490,9 +3484,9 @@
       </c>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>418</v>
+    <row r="67" spans="1:11" ht="99.75" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>413</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>338</v>
@@ -3517,9 +3511,9 @@
       </c>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>419</v>
+    <row r="68" spans="1:11" ht="135">
+      <c r="A68" s="9" t="s">
+        <v>466</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>338</v>
@@ -3544,9 +3538,9 @@
       </c>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>420</v>
+    <row r="69" spans="1:11" ht="135">
+      <c r="A69" s="9" t="s">
+        <v>414</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>338</v>
@@ -3571,9 +3565,9 @@
       </c>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>421</v>
+    <row r="70" spans="1:11" ht="105">
+      <c r="A70" s="9" t="s">
+        <v>415</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>338</v>
@@ -3596,7 +3590,7 @@
       </c>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="60">
       <c r="A71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7">
@@ -3611,7 +3605,7 @@
       <c r="H71" s="16"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="60" customHeight="1">
       <c r="A72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7">
@@ -3626,9 +3620,9 @@
       <c r="H72" s="16"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>422</v>
+    <row r="73" spans="1:11" ht="105">
+      <c r="A73" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>338</v>
@@ -3651,7 +3645,7 @@
       </c>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7">
@@ -3666,9 +3660,9 @@
       <c r="H74" s="16"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>423</v>
+    <row r="75" spans="1:11" ht="120">
+      <c r="A75" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>338</v>
@@ -3693,7 +3687,7 @@
       </c>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7">
@@ -3708,9 +3702,9 @@
       <c r="H76" s="16"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>424</v>
+    <row r="77" spans="1:11" ht="45" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>338</v>
@@ -3735,7 +3729,7 @@
       </c>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7">
@@ -3750,9 +3744,9 @@
       <c r="H78" s="16"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>425</v>
+    <row r="79" spans="1:11" ht="135">
+      <c r="A79" s="9" t="s">
+        <v>419</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>338</v>
@@ -3777,7 +3771,7 @@
       </c>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7">
@@ -3792,9 +3786,9 @@
       <c r="H80" s="16"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>426</v>
+    <row r="81" spans="1:11" ht="90">
+      <c r="A81" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>338</v>
@@ -3819,9 +3813,9 @@
       </c>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>427</v>
+    <row r="82" spans="1:11" ht="60" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>338</v>
@@ -3844,7 +3838,7 @@
       </c>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7">
@@ -3859,9 +3853,9 @@
       <c r="H83" s="16"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>428</v>
+    <row r="84" spans="1:11" ht="120">
+      <c r="A84" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>338</v>
@@ -3886,9 +3880,9 @@
       </c>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>429</v>
+    <row r="85" spans="1:11" ht="120">
+      <c r="A85" s="9" t="s">
+        <v>423</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>338</v>
@@ -3911,9 +3905,9 @@
       <c r="H85" s="16"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>430</v>
+    <row r="86" spans="1:11" ht="125.25" customHeight="1">
+      <c r="A86" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>338</v>
@@ -3936,7 +3930,7 @@
       </c>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="45" customHeight="1">
       <c r="A87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7">
@@ -3951,7 +3945,7 @@
       <c r="H87" s="16"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7">
@@ -3966,7 +3960,7 @@
       <c r="H88" s="16"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7">
@@ -3975,13 +3969,15 @@
       <c r="F89" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G89" s="7"/>
+      <c r="G89" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="H89" s="16"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>478</v>
+    <row r="90" spans="1:11" ht="155.25" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>425</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>338</v>
@@ -4004,7 +4000,7 @@
       </c>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="30">
       <c r="A91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7">
@@ -4019,7 +4015,7 @@
       <c r="H91" s="16"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="190.5" customHeight="1">
       <c r="A92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7">
@@ -4034,9 +4030,9 @@
       <c r="H92" s="16"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>431</v>
+    <row r="93" spans="1:11" ht="147" customHeight="1">
+      <c r="A93" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>338</v>
@@ -4061,7 +4057,7 @@
       </c>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7">
@@ -4076,9 +4072,9 @@
       <c r="H94" s="16"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>432</v>
+    <row r="95" spans="1:11" ht="90">
+      <c r="A95" s="9" t="s">
+        <v>427</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>338</v>
@@ -4103,9 +4099,9 @@
       </c>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>433</v>
+    <row r="96" spans="1:11" ht="90">
+      <c r="A96" s="9" t="s">
+        <v>428</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>338</v>
@@ -4126,9 +4122,9 @@
       <c r="H96" s="16"/>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>434</v>
+    <row r="97" spans="1:11" ht="137.25" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>338</v>
@@ -4153,9 +4149,9 @@
       </c>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>435</v>
+    <row r="98" spans="1:11" ht="45" customHeight="1">
+      <c r="A98" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>338</v>
@@ -4178,9 +4174,9 @@
       <c r="H98" s="16"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>436</v>
+    <row r="99" spans="1:11" ht="45">
+      <c r="A99" s="9" t="s">
+        <v>467</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>338</v>
@@ -4203,9 +4199,9 @@
       <c r="H99" s="16"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>437</v>
+    <row r="100" spans="1:11" ht="120">
+      <c r="A100" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>338</v>
@@ -4230,7 +4226,7 @@
       </c>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="30">
       <c r="A101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7">
@@ -4245,7 +4241,7 @@
       <c r="H101" s="16"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="30">
       <c r="A102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7">
@@ -4260,7 +4256,7 @@
       <c r="H102" s="16"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7">
@@ -4275,7 +4271,7 @@
       <c r="H103" s="16"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="75" customHeight="1">
       <c r="A104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7">
@@ -4290,9 +4286,9 @@
       <c r="H104" s="16"/>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>438</v>
+    <row r="105" spans="1:11" ht="120">
+      <c r="A105" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>338</v>
@@ -4317,8 +4313,8 @@
       </c>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
+    <row r="106" spans="1:11">
+      <c r="A106" s="20"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -4326,9 +4322,9 @@
       <c r="H106" s="16"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>439</v>
+    <row r="107" spans="1:11" ht="150">
+      <c r="A107" s="9" t="s">
+        <v>433</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>338</v>
@@ -4353,9 +4349,9 @@
       </c>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>440</v>
+    <row r="108" spans="1:11" ht="73.5" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>434</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>338</v>
@@ -4377,7 +4373,7 @@
       </c>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="54.75" customHeight="1">
       <c r="A109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7">
@@ -4391,7 +4387,7 @@
       </c>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="30" customHeight="1">
       <c r="A110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7">
@@ -4405,9 +4401,9 @@
       </c>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>441</v>
+    <row r="111" spans="1:11" ht="51.75" customHeight="1">
+      <c r="A111" s="9" t="s">
+        <v>435</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>338</v>
@@ -4432,7 +4428,7 @@
       </c>
       <c r="K111" s="10"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7">
@@ -4446,9 +4442,9 @@
       </c>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>442</v>
+    <row r="113" spans="1:11" ht="43.5" customHeight="1">
+      <c r="A113" s="9" t="s">
+        <v>436</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>338</v>
@@ -4473,7 +4469,7 @@
       </c>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="64.5" customHeight="1">
       <c r="A114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7">
@@ -4487,9 +4483,9 @@
       </c>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>443</v>
+    <row r="115" spans="1:11" ht="135">
+      <c r="A115" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>338</v>
@@ -4514,7 +4510,7 @@
       </c>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7">
@@ -4528,9 +4524,9 @@
       </c>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>444</v>
+    <row r="117" spans="1:11" ht="135">
+      <c r="A117" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>338</v>
@@ -4555,7 +4551,7 @@
       </c>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30" customHeight="1">
       <c r="A118" s="9"/>
       <c r="E118" s="15">
         <v>2</v>
@@ -4568,9 +4564,9 @@
       </c>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>445</v>
+    <row r="119" spans="1:11" ht="165">
+      <c r="A119" s="9" t="s">
+        <v>474</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>338</v>
@@ -4595,9 +4591,9 @@
       </c>
       <c r="K119" s="10"/>
     </row>
-    <row r="120" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>446</v>
+    <row r="120" spans="1:11" ht="180">
+      <c r="A120" s="9" t="s">
+        <v>475</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>338</v>
@@ -4622,9 +4618,9 @@
       </c>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>447</v>
+    <row r="121" spans="1:11" ht="150">
+      <c r="A121" s="9" t="s">
+        <v>476</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>338</v>
@@ -4649,9 +4645,9 @@
       </c>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>448</v>
+    <row r="122" spans="1:11" ht="165">
+      <c r="A122" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>338</v>
@@ -4676,9 +4672,9 @@
       </c>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>449</v>
+    <row r="123" spans="1:11" ht="30" customHeight="1">
+      <c r="A123" s="9" t="s">
+        <v>478</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>338</v>
@@ -4703,9 +4699,9 @@
       </c>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>450</v>
+    <row r="124" spans="1:11" ht="180">
+      <c r="A124" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>338</v>
@@ -4730,9 +4726,9 @@
       </c>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>451</v>
+    <row r="125" spans="1:11" ht="165">
+      <c r="A125" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>338</v>
@@ -4757,9 +4753,9 @@
       </c>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>452</v>
+    <row r="126" spans="1:11" ht="135">
+      <c r="A126" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>338</v>
@@ -4784,9 +4780,9 @@
       </c>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>453</v>
+    <row r="127" spans="1:11" ht="150">
+      <c r="A127" s="9" t="s">
+        <v>442</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>338</v>
@@ -4811,9 +4807,9 @@
       </c>
       <c r="K127" s="10"/>
     </row>
-    <row r="128" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>454</v>
+    <row r="128" spans="1:11" ht="45" customHeight="1">
+      <c r="A128" s="9" t="s">
+        <v>443</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>338</v>
@@ -4838,9 +4834,9 @@
       </c>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>455</v>
+    <row r="129" spans="1:11" ht="135">
+      <c r="A129" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>338</v>
@@ -4865,7 +4861,7 @@
       </c>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30">
       <c r="A130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7">
@@ -4879,7 +4875,7 @@
       </c>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7">
@@ -4893,7 +4889,7 @@
       </c>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="30" customHeight="1">
       <c r="A132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7">
@@ -4907,9 +4903,9 @@
       </c>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>456</v>
+    <row r="133" spans="1:11" ht="105">
+      <c r="A133" s="9" t="s">
+        <v>445</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>338</v>
@@ -4934,9 +4930,9 @@
       </c>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>457</v>
+    <row r="134" spans="1:11" ht="120">
+      <c r="A134" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>338</v>
@@ -4961,9 +4957,9 @@
       </c>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>458</v>
+    <row r="135" spans="1:11" ht="90">
+      <c r="A135" s="9" t="s">
+        <v>447</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>338</v>
@@ -4988,9 +4984,9 @@
       </c>
       <c r="K135" s="10"/>
     </row>
-    <row r="136" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>459</v>
+    <row r="136" spans="1:11" ht="105">
+      <c r="A136" s="9" t="s">
+        <v>448</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>338</v>
@@ -5013,9 +5009,9 @@
       <c r="H136" s="18"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>460</v>
+    <row r="137" spans="1:11" ht="30" customHeight="1">
+      <c r="A137" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>338</v>
@@ -5037,9 +5033,9 @@
       </c>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>461</v>
+    <row r="138" spans="1:11" ht="105">
+      <c r="A138" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>338</v>
@@ -5064,9 +5060,9 @@
       </c>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
-        <v>462</v>
+    <row r="139" spans="1:11" ht="120">
+      <c r="A139" s="9" t="s">
+        <v>451</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>338</v>
@@ -5091,9 +5087,9 @@
       </c>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>463</v>
+    <row r="140" spans="1:11" ht="105">
+      <c r="A140" s="9" t="s">
+        <v>452</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>338</v>
@@ -5115,9 +5111,9 @@
       </c>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
-        <v>464</v>
+    <row r="141" spans="1:11" ht="105">
+      <c r="A141" s="9" t="s">
+        <v>453</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>338</v>
@@ -5142,9 +5138,9 @@
       </c>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>465</v>
+    <row r="142" spans="1:11" ht="142.5" customHeight="1">
+      <c r="A142" s="9" t="s">
+        <v>454</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>338</v>
@@ -5169,7 +5165,7 @@
       </c>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7">
@@ -5184,7 +5180,7 @@
       <c r="H143" s="18"/>
       <c r="K143" s="10"/>
     </row>
-    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="30">
       <c r="A144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7">
@@ -5199,7 +5195,7 @@
       <c r="H144" s="18"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7">
@@ -5214,9 +5210,9 @@
       <c r="H145" s="18"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>466</v>
+    <row r="146" spans="1:11" ht="135">
+      <c r="A146" s="9" t="s">
+        <v>455</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>338</v>
@@ -5241,7 +5237,7 @@
       </c>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="30">
       <c r="A147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7">
@@ -5256,7 +5252,7 @@
       <c r="H147" s="18"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="45" customHeight="1">
       <c r="A148" s="7"/>
       <c r="E148" s="15">
         <v>3</v>
@@ -5269,9 +5265,9 @@
       </c>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
-        <v>467</v>
+    <row r="149" spans="1:11" ht="45" customHeight="1">
+      <c r="A149" s="9" t="s">
+        <v>456</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>338</v>
@@ -5290,7 +5286,7 @@
       </c>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="45">
       <c r="A150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7">
@@ -5304,7 +5300,7 @@
       </c>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="75">
       <c r="A151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7">
@@ -5318,9 +5314,9 @@
       </c>
       <c r="K151" s="10"/>
     </row>
-    <row r="152" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>468</v>
+    <row r="152" spans="1:11" ht="135">
+      <c r="A152" s="9" t="s">
+        <v>457</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>338</v>
@@ -5339,7 +5335,7 @@
       </c>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="30">
       <c r="A153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7">
@@ -5353,7 +5349,7 @@
       </c>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7">
@@ -5367,7 +5363,7 @@
       </c>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="123.75" customHeight="1">
       <c r="A155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7">
@@ -5381,9 +5377,9 @@
       </c>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>469</v>
+    <row r="156" spans="1:11" ht="135">
+      <c r="A156" s="9" t="s">
+        <v>458</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>338</v>
@@ -5405,7 +5401,7 @@
       </c>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="45" customHeight="1">
       <c r="A157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7">
@@ -5419,7 +5415,7 @@
       </c>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="90">
       <c r="A158" s="7"/>
       <c r="D158" s="9" t="s">
         <v>389</v>
@@ -5435,7 +5431,7 @@
       </c>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="120">
       <c r="A159" s="7"/>
       <c r="D159" s="9" t="s">
         <v>390</v>
@@ -5451,7 +5447,7 @@
       </c>
       <c r="K159" s="10"/>
     </row>
-    <row r="160" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="105">
       <c r="A160" s="7"/>
       <c r="D160" s="9" t="s">
         <v>391</v>
@@ -5467,7 +5463,7 @@
       </c>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="45">
       <c r="A161" s="7"/>
       <c r="D161" s="9" t="s">
         <v>393</v>
@@ -5483,7 +5479,7 @@
       </c>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="120">
       <c r="A162" s="7"/>
       <c r="D162" s="9" t="s">
         <v>392</v>
@@ -5499,7 +5495,7 @@
       </c>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="30">
       <c r="A163" s="7"/>
       <c r="D163" s="9" t="s">
         <v>249</v>
@@ -5515,9 +5511,9 @@
       </c>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>470</v>
+    <row r="164" spans="1:11" ht="120">
+      <c r="A164" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>338</v>
@@ -5542,7 +5538,7 @@
       </c>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7">
@@ -5557,7 +5553,7 @@
       <c r="H165" s="16"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7">
@@ -5572,9 +5568,9 @@
       <c r="H166" s="16"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
-        <v>471</v>
+    <row r="167" spans="1:11" ht="45" customHeight="1">
+      <c r="A167" s="9" t="s">
+        <v>460</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>338</v>
@@ -5596,9 +5592,9 @@
       </c>
       <c r="K167" s="10"/>
     </row>
-    <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="30">
       <c r="A168" s="7"/>
-      <c r="D168" s="20"/>
+      <c r="D168" s="19"/>
       <c r="E168" s="7">
         <v>2</v>
       </c>
@@ -5611,9 +5607,9 @@
       <c r="H168" s="16"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169" s="7"/>
-      <c r="D169" s="20"/>
+      <c r="D169" s="19"/>
       <c r="E169" s="7">
         <v>3</v>
       </c>
@@ -5626,9 +5622,9 @@
       <c r="H169" s="16"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>472</v>
+    <row r="170" spans="1:11" ht="120">
+      <c r="A170" s="9" t="s">
+        <v>461</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>338</v>
@@ -5650,9 +5646,9 @@
       </c>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="30">
       <c r="A171" s="7"/>
-      <c r="D171" s="20"/>
+      <c r="D171" s="19"/>
       <c r="E171" s="7">
         <v>2</v>
       </c>
@@ -5665,9 +5661,9 @@
       <c r="H171" s="16"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172" s="7"/>
-      <c r="D172" s="20"/>
+      <c r="D172" s="19"/>
       <c r="E172" s="7">
         <v>3</v>
       </c>
@@ -5680,9 +5676,9 @@
       <c r="H172" s="16"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173" s="7"/>
-      <c r="D173" s="20"/>
+      <c r="D173" s="19"/>
       <c r="E173" s="7">
         <v>4</v>
       </c>
@@ -5695,9 +5691,9 @@
       <c r="H173" s="16"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174" s="7"/>
-      <c r="D174" s="20"/>
+      <c r="D174" s="19"/>
       <c r="E174" s="7">
         <v>5</v>
       </c>
@@ -5710,9 +5706,9 @@
       <c r="H174" s="16"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
-        <v>473</v>
+    <row r="175" spans="1:11" ht="120">
+      <c r="A175" s="9" t="s">
+        <v>462</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>338</v>
@@ -5734,9 +5730,9 @@
       </c>
       <c r="K175" s="10"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176" s="7"/>
-      <c r="D176" s="20"/>
+      <c r="D176" s="19"/>
       <c r="E176" s="7">
         <v>2</v>
       </c>
@@ -5749,9 +5745,9 @@
       <c r="H176" s="16"/>
       <c r="K176" s="10"/>
     </row>
-    <row r="177" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
-        <v>474</v>
+    <row r="177" spans="1:11" ht="30" customHeight="1">
+      <c r="A177" s="9" t="s">
+        <v>463</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>338</v>
@@ -5773,9 +5769,9 @@
       </c>
       <c r="K177" s="10"/>
     </row>
-    <row r="178" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="123.75" customHeight="1">
       <c r="A178" s="7"/>
-      <c r="D178" s="20" t="s">
+      <c r="D178" s="19" t="s">
         <v>261</v>
       </c>
       <c r="E178" s="7">
@@ -5790,9 +5786,9 @@
       <c r="H178" s="18"/>
       <c r="K178" s="10"/>
     </row>
-    <row r="179" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="82.5" customHeight="1">
       <c r="A179" s="9" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>338</v>
@@ -5814,9 +5810,9 @@
       </c>
       <c r="K179" s="10"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="7"/>
-      <c r="D180" s="20" t="s">
+      <c r="D180" s="19" t="s">
         <v>261</v>
       </c>
       <c r="E180" s="7">
@@ -5831,9 +5827,9 @@
       <c r="H180" s="16"/>
       <c r="K180" s="10"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181" s="7"/>
-      <c r="D181" s="20" t="s">
+      <c r="D181" s="19" t="s">
         <v>262</v>
       </c>
       <c r="E181" s="7">
@@ -5848,9 +5844,9 @@
       <c r="H181" s="16"/>
       <c r="K181" s="10"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182" s="7"/>
-      <c r="D182" s="20" t="s">
+      <c r="D182" s="19" t="s">
         <v>264</v>
       </c>
       <c r="E182" s="7">
@@ -5865,60 +5861,60 @@
       <c r="H182" s="16"/>
       <c r="K182" s="10"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="21"/>
+    <row r="183" spans="1:11">
+      <c r="A183" s="20"/>
       <c r="D183" s="7"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="K183" s="10"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="21"/>
+    <row r="184" spans="1:11">
+      <c r="A184" s="20"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="K184" s="10"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="21"/>
+    <row r="185" spans="1:11">
+      <c r="A185" s="20"/>
       <c r="D185" s="7"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="K185" s="10"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="21"/>
+    <row r="186" spans="1:11">
+      <c r="A186" s="20"/>
       <c r="D186" s="7"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="K186" s="10"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="21"/>
+    <row r="187" spans="1:11">
+      <c r="A187" s="20"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
       <c r="H187" s="18"/>
       <c r="K187" s="10"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="K188" s="10"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="K189" s="10"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="K190" s="10"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="21"/>
+    <row r="191" spans="1:11">
+      <c r="A191" s="20"/>
       <c r="D191" s="9"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -5926,32 +5922,32 @@
       <c r="H191" s="18"/>
       <c r="K191" s="10"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="21"/>
+    <row r="192" spans="1:11">
+      <c r="A192" s="20"/>
       <c r="D192" s="9"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="K192" s="10"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="21"/>
+    <row r="193" spans="1:11">
+      <c r="A193" s="20"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="K193" s="10"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="21"/>
+    <row r="194" spans="1:11">
+      <c r="A194" s="20"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="K194" s="10"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="21"/>
+    <row r="195" spans="1:11">
+      <c r="A195" s="20"/>
       <c r="D195" s="9"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
@@ -5959,32 +5955,32 @@
       <c r="H195" s="18"/>
       <c r="K195" s="10"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="21"/>
+    <row r="196" spans="1:11">
+      <c r="A196" s="20"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="K196" s="10"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="21"/>
+    <row r="197" spans="1:11">
+      <c r="A197" s="20"/>
       <c r="D197" s="9"/>
       <c r="E197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="18"/>
       <c r="K197" s="10"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="21"/>
+    <row r="198" spans="1:11">
+      <c r="A198" s="20"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="K198" s="10"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="21"/>
+    <row r="199" spans="1:11">
+      <c r="A199" s="20"/>
       <c r="D199" s="9"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
@@ -5992,16 +5988,16 @@
       <c r="H199" s="18"/>
       <c r="K199" s="10"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="21"/>
+    <row r="200" spans="1:11">
+      <c r="A200" s="20"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="K200" s="10"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="21"/>
+    <row r="201" spans="1:11">
+      <c r="A201" s="20"/>
       <c r="D201" s="9"/>
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
@@ -6009,13 +6005,13 @@
       <c r="H201" s="18"/>
       <c r="K201" s="10"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="K202" s="10"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="21"/>
+    <row r="203" spans="1:11">
+      <c r="A203" s="20"/>
       <c r="D203" s="9"/>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
@@ -6023,8 +6019,8 @@
       <c r="H203" s="18"/>
       <c r="K203" s="10"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="21"/>
+    <row r="204" spans="1:11">
+      <c r="A204" s="20"/>
       <c r="D204" s="9"/>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
@@ -6032,8 +6028,8 @@
       <c r="H204" s="18"/>
       <c r="K204" s="10"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="21"/>
+    <row r="205" spans="1:11">
+      <c r="A205" s="20"/>
       <c r="D205" s="9"/>
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
@@ -6041,8 +6037,8 @@
       <c r="H205" s="18"/>
       <c r="K205" s="10"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="21"/>
+    <row r="206" spans="1:11">
+      <c r="A206" s="20"/>
       <c r="D206" s="9"/>
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
@@ -6050,8 +6046,8 @@
       <c r="H206" s="18"/>
       <c r="K206" s="10"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="21"/>
+    <row r="207" spans="1:11">
+      <c r="A207" s="20"/>
       <c r="D207" s="9"/>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
@@ -6059,8 +6055,8 @@
       <c r="H207" s="18"/>
       <c r="K207" s="10"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="21"/>
+    <row r="208" spans="1:11">
+      <c r="A208" s="20"/>
       <c r="D208" s="9"/>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
@@ -6068,8 +6064,8 @@
       <c r="H208" s="18"/>
       <c r="K208" s="10"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="21"/>
+    <row r="209" spans="1:11">
+      <c r="A209" s="20"/>
       <c r="D209" s="9"/>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
@@ -6077,8 +6073,8 @@
       <c r="H209" s="18"/>
       <c r="K209" s="10"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="21"/>
+    <row r="210" spans="1:11">
+      <c r="A210" s="20"/>
       <c r="D210" s="9"/>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
@@ -6086,8 +6082,8 @@
       <c r="H210" s="18"/>
       <c r="K210" s="10"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="21"/>
+    <row r="211" spans="1:11">
+      <c r="A211" s="20"/>
       <c r="D211" s="9"/>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
@@ -6095,8 +6091,8 @@
       <c r="H211" s="18"/>
       <c r="K211" s="10"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="21"/>
+    <row r="212" spans="1:11">
+      <c r="A212" s="20"/>
       <c r="D212" s="9"/>
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
@@ -6104,8 +6100,8 @@
       <c r="H212" s="18"/>
       <c r="K212" s="10"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="21"/>
+    <row r="213" spans="1:11">
+      <c r="A213" s="20"/>
       <c r="D213" s="9"/>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
@@ -6113,32 +6109,32 @@
       <c r="H213" s="18"/>
       <c r="K213" s="10"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="21"/>
+    <row r="214" spans="1:11">
+      <c r="A214" s="20"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="K214" s="10"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="21"/>
+    <row r="215" spans="1:11">
+      <c r="A215" s="20"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="K215" s="10"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="21"/>
+    <row r="216" spans="1:11">
+      <c r="A216" s="20"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
       <c r="K216" s="10"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="21"/>
+    <row r="217" spans="1:11">
+      <c r="A217" s="20"/>
       <c r="D217" s="9"/>
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
@@ -6146,8 +6142,8 @@
       <c r="H217" s="18"/>
       <c r="K217" s="10"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="21"/>
+    <row r="218" spans="1:11">
+      <c r="A218" s="20"/>
       <c r="D218" s="9"/>
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
@@ -6155,8 +6151,8 @@
       <c r="H218" s="18"/>
       <c r="K218" s="10"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="21"/>
+    <row r="219" spans="1:11">
+      <c r="A219" s="20"/>
       <c r="D219" s="9"/>
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
@@ -6164,8 +6160,8 @@
       <c r="H219" s="18"/>
       <c r="K219" s="10"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="21"/>
+    <row r="220" spans="1:11">
+      <c r="A220" s="20"/>
       <c r="D220" s="9"/>
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
@@ -6173,16 +6169,16 @@
       <c r="H220" s="18"/>
       <c r="K220" s="10"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="21"/>
+    <row r="221" spans="1:11">
+      <c r="A221" s="20"/>
       <c r="D221" s="9"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="K221" s="10"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="21"/>
+    <row r="222" spans="1:11">
+      <c r="A222" s="20"/>
       <c r="D222" s="9"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
@@ -6190,24 +6186,24 @@
       <c r="H222" s="18"/>
       <c r="K222" s="10"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="21"/>
+    <row r="223" spans="1:11">
+      <c r="A223" s="20"/>
       <c r="D223" s="9"/>
       <c r="E223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="18"/>
       <c r="K223" s="10"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="21"/>
+    <row r="224" spans="1:11">
+      <c r="A224" s="20"/>
       <c r="D224" s="9"/>
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="K224" s="10"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="21"/>
+    <row r="225" spans="1:11">
+      <c r="A225" s="20"/>
       <c r="D225" s="9"/>
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
@@ -6215,8 +6211,8 @@
       <c r="H225" s="18"/>
       <c r="K225" s="10"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="21"/>
+    <row r="226" spans="1:11">
+      <c r="A226" s="20"/>
       <c r="D226" s="9"/>
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
@@ -6224,8 +6220,8 @@
       <c r="H226" s="18"/>
       <c r="K226" s="10"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="21"/>
+    <row r="227" spans="1:11">
+      <c r="A227" s="20"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
@@ -6233,8 +6229,8 @@
       <c r="H227" s="18"/>
       <c r="K227" s="10"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="21"/>
+    <row r="228" spans="1:11">
+      <c r="A228" s="20"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
@@ -6242,8 +6238,8 @@
       <c r="H228" s="18"/>
       <c r="K228" s="10"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="21"/>
+    <row r="229" spans="1:11">
+      <c r="A229" s="20"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
@@ -6251,8 +6247,8 @@
       <c r="H229" s="18"/>
       <c r="K229" s="10"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="21"/>
+    <row r="230" spans="1:11">
+      <c r="A230" s="20"/>
       <c r="D230" s="9"/>
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
@@ -6260,8 +6256,8 @@
       <c r="H230" s="18"/>
       <c r="K230" s="10"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="21"/>
+    <row r="231" spans="1:11">
+      <c r="A231" s="20"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
@@ -6269,139 +6265,139 @@
       <c r="H231" s="18"/>
       <c r="K231" s="10"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="21"/>
+    <row r="232" spans="1:11">
+      <c r="A232" s="20"/>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="21"/>
+    <row r="233" spans="1:11">
+      <c r="A233" s="20"/>
       <c r="D233" s="9"/>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="21"/>
+    <row r="234" spans="1:11">
+      <c r="A234" s="20"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="21"/>
+    <row r="235" spans="1:11">
+      <c r="A235" s="20"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="21"/>
+    <row r="236" spans="1:11">
+      <c r="A236" s="20"/>
       <c r="D236" s="9"/>
       <c r="E236" s="7"/>
       <c r="F236" s="7"/>
       <c r="K236" s="10"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="21"/>
+    <row r="237" spans="1:11">
+      <c r="A237" s="20"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
       <c r="K237" s="10"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="21"/>
+    <row r="238" spans="1:11">
+      <c r="A238" s="20"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
       <c r="K238" s="10"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="21"/>
+    <row r="239" spans="1:11">
+      <c r="A239" s="20"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="21"/>
+    <row r="240" spans="1:11">
+      <c r="A240" s="20"/>
       <c r="D240" s="9"/>
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="21"/>
+    <row r="241" spans="1:11">
+      <c r="A241" s="20"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
       <c r="K241" s="10"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="21"/>
+    <row r="242" spans="1:11">
+      <c r="A242" s="20"/>
       <c r="D242" s="9"/>
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
       <c r="K242" s="10"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="21"/>
+    <row r="243" spans="1:11">
+      <c r="A243" s="20"/>
       <c r="D243" s="9"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
       <c r="K243" s="10"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="21"/>
+    <row r="244" spans="1:11">
+      <c r="A244" s="20"/>
       <c r="D244" s="9"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
       <c r="K244" s="10"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="21"/>
+    <row r="245" spans="1:11">
+      <c r="A245" s="20"/>
       <c r="D245" s="9"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
       <c r="G245" s="7"/>
       <c r="K245" s="10"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="21"/>
+    <row r="246" spans="1:11">
+      <c r="A246" s="20"/>
       <c r="D246" s="9"/>
       <c r="E246" s="7"/>
       <c r="G246" s="7"/>
       <c r="K246" s="10"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="21"/>
+    <row r="247" spans="1:11">
+      <c r="A247" s="20"/>
       <c r="D247" s="9"/>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
       <c r="K247" s="10"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="21"/>
+    <row r="248" spans="1:11">
+      <c r="A248" s="20"/>
       <c r="D248" s="9"/>
       <c r="E248" s="7"/>
       <c r="G248" s="7"/>
       <c r="H248" s="16"/>
       <c r="K248" s="10"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="21"/>
+    <row r="249" spans="1:11">
+      <c r="A249" s="20"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
@@ -6409,8 +6405,8 @@
       <c r="H249" s="16"/>
       <c r="K249" s="10"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="21"/>
+    <row r="250" spans="1:11">
+      <c r="A250" s="20"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
@@ -6418,1768 +6414,1768 @@
       <c r="H250" s="16"/>
       <c r="K250" s="10"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="21"/>
+    <row r="251" spans="1:11">
+      <c r="A251" s="20"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
       <c r="H251" s="16"/>
       <c r="K251" s="10"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="21"/>
-      <c r="D252" s="20"/>
+    <row r="252" spans="1:11">
+      <c r="A252" s="20"/>
+      <c r="D252" s="19"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
       <c r="G252" s="7"/>
       <c r="H252" s="16"/>
       <c r="K252" s="10"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="21"/>
-      <c r="D253" s="20"/>
+    <row r="253" spans="1:11">
+      <c r="A253" s="20"/>
+      <c r="D253" s="19"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
       <c r="G253" s="7"/>
       <c r="H253" s="16"/>
       <c r="K253" s="10"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="21"/>
+    <row r="254" spans="1:11">
+      <c r="A254" s="20"/>
       <c r="D254" s="9"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
       <c r="H254" s="16"/>
       <c r="K254" s="10"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="21"/>
-      <c r="D255" s="20"/>
+    <row r="255" spans="1:11">
+      <c r="A255" s="20"/>
+      <c r="D255" s="19"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
       <c r="H255" s="16"/>
       <c r="K255" s="10"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="21"/>
-      <c r="D256" s="20"/>
+    <row r="256" spans="1:11">
+      <c r="A256" s="20"/>
+      <c r="D256" s="19"/>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
       <c r="G256" s="7"/>
       <c r="H256" s="16"/>
       <c r="K256" s="10"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="21"/>
-      <c r="D257" s="20"/>
+    <row r="257" spans="1:11">
+      <c r="A257" s="20"/>
+      <c r="D257" s="19"/>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
       <c r="G257" s="7"/>
       <c r="H257" s="16"/>
       <c r="K257" s="10"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="21"/>
-      <c r="D258" s="20"/>
+    <row r="258" spans="1:11">
+      <c r="A258" s="20"/>
+      <c r="D258" s="19"/>
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
       <c r="H258" s="16"/>
       <c r="K258" s="10"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="21"/>
+    <row r="259" spans="1:11">
+      <c r="A259" s="20"/>
       <c r="D259" s="9"/>
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
       <c r="H259" s="16"/>
       <c r="K259" s="10"/>
     </row>
-    <row r="260" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="21"/>
-      <c r="D260" s="20"/>
+    <row r="260" spans="1:11" ht="30" customHeight="1">
+      <c r="A260" s="20"/>
+      <c r="D260" s="19"/>
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
       <c r="G260" s="7"/>
       <c r="H260" s="16"/>
       <c r="K260" s="10"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="21"/>
+    <row r="261" spans="1:11">
+      <c r="A261" s="20"/>
       <c r="D261" s="9"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
       <c r="H261" s="18"/>
       <c r="K261" s="10"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="21"/>
-      <c r="D262" s="20"/>
+    <row r="262" spans="1:11">
+      <c r="A262" s="20"/>
+      <c r="D262" s="19"/>
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
       <c r="H262" s="18"/>
       <c r="K262" s="10"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11">
       <c r="D263" s="9"/>
       <c r="E263" s="7"/>
       <c r="H263" s="16"/>
       <c r="K263" s="10"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="21"/>
-      <c r="D264" s="20"/>
+    <row r="264" spans="1:11">
+      <c r="A264" s="20"/>
+      <c r="D264" s="19"/>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
       <c r="H264" s="16"/>
       <c r="K264" s="10"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="21"/>
-      <c r="D265" s="20"/>
+    <row r="265" spans="1:11">
+      <c r="A265" s="20"/>
+      <c r="D265" s="19"/>
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
       <c r="H265" s="16"/>
       <c r="K265" s="10"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="21"/>
-      <c r="D266" s="20"/>
+    <row r="266" spans="1:11">
+      <c r="A266" s="20"/>
+      <c r="D266" s="19"/>
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
       <c r="H266" s="16"/>
       <c r="K266" s="10"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11">
       <c r="D267" s="9"/>
       <c r="H267" s="18"/>
       <c r="K267" s="10"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="21"/>
-      <c r="D268" s="20"/>
+    <row r="268" spans="1:11">
+      <c r="A268" s="20"/>
+      <c r="D268" s="19"/>
       <c r="K268" s="10"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="21"/>
+    <row r="269" spans="1:11">
+      <c r="A269" s="20"/>
       <c r="K269" s="10"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="21"/>
+    <row r="270" spans="1:11">
+      <c r="A270" s="20"/>
       <c r="K270" s="10"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="21"/>
+    <row r="271" spans="1:11">
+      <c r="A271" s="20"/>
       <c r="K271" s="10"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="21"/>
+    <row r="272" spans="1:11">
+      <c r="A272" s="20"/>
       <c r="K272" s="10"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="21"/>
+    <row r="273" spans="1:11">
+      <c r="A273" s="20"/>
       <c r="K273" s="10"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11">
       <c r="K274" s="10"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="D275" s="9"/>
       <c r="K275" s="10"/>
     </row>
-    <row r="276" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="15" customHeight="1">
       <c r="K276" s="10"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11">
       <c r="D277" s="9"/>
       <c r="H277" s="18"/>
       <c r="K277" s="10"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11">
       <c r="K278" s="10"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="K279" s="10"/>
     </row>
-    <row r="280" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="30" customHeight="1">
       <c r="K280" s="10"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11">
       <c r="K281" s="10"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11">
       <c r="K282" s="10"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="K283" s="10"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11">
       <c r="K284" s="10"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11">
       <c r="D285" s="9"/>
       <c r="H285" s="18"/>
       <c r="K285" s="10"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11">
       <c r="D286" s="9"/>
       <c r="K286" s="10"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11">
       <c r="D287" s="9"/>
       <c r="K287" s="10"/>
     </row>
-    <row r="288" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" ht="30" customHeight="1">
       <c r="K288" s="10"/>
     </row>
-    <row r="289" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:11">
       <c r="K289" s="10"/>
     </row>
-    <row r="290" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:11">
       <c r="K290" s="10"/>
     </row>
-    <row r="291" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:11">
       <c r="K291" s="10"/>
     </row>
-    <row r="292" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:11">
       <c r="K292" s="10"/>
     </row>
-    <row r="293" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:11">
       <c r="K293" s="10"/>
     </row>
-    <row r="294" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:11">
       <c r="D294" s="9"/>
       <c r="H294" s="18"/>
       <c r="K294" s="10"/>
     </row>
-    <row r="295" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:11" ht="15" customHeight="1">
       <c r="K295" s="10"/>
     </row>
-    <row r="296" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:11">
       <c r="K296" s="10"/>
     </row>
-    <row r="297" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:11">
       <c r="K297" s="10"/>
     </row>
-    <row r="298" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:11">
       <c r="D298" s="9"/>
       <c r="H298" s="18"/>
       <c r="K298" s="10"/>
     </row>
-    <row r="299" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:11">
       <c r="K299" s="10"/>
     </row>
-    <row r="300" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:11">
       <c r="D300" s="9"/>
       <c r="H300" s="18"/>
       <c r="K300" s="10"/>
     </row>
-    <row r="301" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:11">
       <c r="K301" s="10"/>
     </row>
-    <row r="302" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:11">
       <c r="D302" s="9"/>
       <c r="H302" s="18"/>
       <c r="K302" s="10"/>
     </row>
-    <row r="303" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:11">
       <c r="K303" s="10"/>
     </row>
-    <row r="304" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:11">
       <c r="D304" s="9"/>
       <c r="H304" s="18"/>
       <c r="K304" s="10"/>
     </row>
-    <row r="305" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:11">
       <c r="K305" s="10"/>
     </row>
-    <row r="306" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:11">
       <c r="D306" s="9"/>
       <c r="H306" s="18"/>
       <c r="K306" s="10"/>
     </row>
-    <row r="307" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:11">
       <c r="K307" s="10"/>
     </row>
-    <row r="308" spans="4:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:11" ht="30" customHeight="1">
       <c r="K308" s="10"/>
     </row>
-    <row r="309" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:11">
       <c r="K309" s="10"/>
     </row>
-    <row r="310" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:11">
       <c r="K310" s="10"/>
     </row>
-    <row r="311" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:11">
       <c r="D311" s="9"/>
       <c r="H311" s="18"/>
       <c r="K311" s="10"/>
     </row>
-    <row r="312" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:11">
       <c r="K312" s="10"/>
     </row>
-    <row r="313" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:11">
       <c r="K313" s="10"/>
     </row>
-    <row r="314" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:11">
       <c r="K314" s="10"/>
     </row>
-    <row r="315" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:11">
       <c r="K315" s="10"/>
     </row>
-    <row r="316" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:11">
       <c r="D316" s="9"/>
       <c r="K316" s="10"/>
     </row>
-    <row r="317" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:11">
       <c r="K317" s="10"/>
     </row>
-    <row r="318" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:11">
       <c r="K318" s="10"/>
     </row>
-    <row r="319" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:11">
       <c r="K319" s="10"/>
     </row>
-    <row r="320" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:11">
       <c r="H320" s="18"/>
       <c r="K320" s="10"/>
     </row>
-    <row r="321" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:11">
       <c r="K321" s="10"/>
     </row>
-    <row r="322" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:11">
       <c r="D322" s="9"/>
       <c r="K322" s="10"/>
     </row>
-    <row r="323" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:11">
       <c r="K323" s="10"/>
     </row>
-    <row r="324" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:11">
       <c r="K324" s="10"/>
     </row>
-    <row r="325" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:11">
       <c r="K325" s="10"/>
     </row>
-    <row r="326" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:11">
       <c r="K326" s="10"/>
     </row>
-    <row r="327" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:11">
       <c r="K327" s="10"/>
     </row>
-    <row r="328" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:11">
       <c r="K328" s="10"/>
     </row>
-    <row r="329" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:11">
       <c r="K329" s="10"/>
     </row>
-    <row r="330" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:11">
       <c r="K330" s="10"/>
     </row>
-    <row r="331" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:11">
       <c r="K331" s="10"/>
     </row>
-    <row r="332" spans="4:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:11" ht="30" customHeight="1">
       <c r="K332" s="10"/>
     </row>
-    <row r="333" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:11">
       <c r="K333" s="10"/>
     </row>
-    <row r="334" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:11">
       <c r="K334" s="10"/>
     </row>
-    <row r="335" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:11">
       <c r="K335" s="10"/>
     </row>
-    <row r="336" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:11">
       <c r="K336" s="10"/>
     </row>
-    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="11:11">
       <c r="K337" s="10"/>
     </row>
-    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="11:11">
       <c r="K338" s="10"/>
     </row>
-    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="11:11">
       <c r="K339" s="10"/>
     </row>
-    <row r="340" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="11:11" ht="30" customHeight="1">
       <c r="K340" s="10"/>
     </row>
-    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="11:11">
       <c r="K341" s="10"/>
     </row>
-    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="11:11">
       <c r="K342" s="10"/>
     </row>
-    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="11:11">
       <c r="K343" s="10"/>
     </row>
-    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="11:11">
       <c r="K344" s="10"/>
     </row>
-    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="11:11">
       <c r="K345" s="10"/>
     </row>
-    <row r="346" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="11:11" ht="30" customHeight="1">
       <c r="K346" s="10"/>
     </row>
-    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="11:11">
       <c r="K347" s="10"/>
     </row>
-    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="11:11">
       <c r="K348" s="10"/>
     </row>
-    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="11:11">
       <c r="K349" s="10"/>
     </row>
-    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="11:11">
       <c r="K350" s="10"/>
     </row>
-    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="11:11">
       <c r="K351" s="10"/>
     </row>
-    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="11:11">
       <c r="K352" s="10"/>
     </row>
-    <row r="353" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="11:11" ht="30" customHeight="1">
       <c r="K353" s="10"/>
     </row>
-    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="11:11">
       <c r="K354" s="10"/>
     </row>
-    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="11:11">
       <c r="K355" s="10"/>
     </row>
-    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="11:11">
       <c r="K356" s="10"/>
     </row>
-    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="11:11">
       <c r="K357" s="10"/>
     </row>
-    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="11:11">
       <c r="K358" s="10"/>
     </row>
-    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="11:11">
       <c r="K359" s="10"/>
     </row>
-    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="11:11">
       <c r="K360" s="10"/>
     </row>
-    <row r="361" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="11:11" ht="30" customHeight="1">
       <c r="K361" s="10"/>
     </row>
-    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="11:11">
       <c r="K362" s="10"/>
     </row>
-    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="11:11">
       <c r="K363" s="10"/>
     </row>
-    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="11:11">
       <c r="K364" s="10"/>
     </row>
-    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="11:11">
       <c r="K365" s="10"/>
     </row>
-    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="11:11">
       <c r="K366" s="10"/>
     </row>
-    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="11:11">
       <c r="K367" s="10"/>
     </row>
-    <row r="368" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="11:11" ht="15" customHeight="1">
       <c r="K368" s="10"/>
     </row>
-    <row r="369" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="11:11">
       <c r="K369" s="10"/>
     </row>
-    <row r="370" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="11:11">
       <c r="K370" s="10"/>
     </row>
-    <row r="371" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="11:11">
       <c r="K371" s="10"/>
     </row>
-    <row r="372" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="11:11">
       <c r="K372" s="10"/>
     </row>
-    <row r="373" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="11:11" ht="30" customHeight="1">
       <c r="K373" s="10"/>
     </row>
-    <row r="374" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="11:11">
       <c r="K374" s="10"/>
     </row>
-    <row r="375" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="11:11">
       <c r="K375" s="10"/>
     </row>
-    <row r="376" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="11:11">
       <c r="K376" s="10"/>
     </row>
-    <row r="377" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="11:11">
       <c r="K377" s="10"/>
     </row>
-    <row r="378" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="11:11">
       <c r="K378" s="10"/>
     </row>
-    <row r="379" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="11:11" ht="30" customHeight="1">
       <c r="K379" s="10"/>
     </row>
-    <row r="380" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="11:11">
       <c r="K380" s="10"/>
     </row>
-    <row r="381" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="11:11">
       <c r="K381" s="10"/>
     </row>
-    <row r="382" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="11:11">
       <c r="K382" s="10"/>
     </row>
-    <row r="383" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="11:11">
       <c r="K383" s="10"/>
     </row>
-    <row r="384" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="11:11">
       <c r="K384" s="10"/>
     </row>
-    <row r="385" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="11:11">
       <c r="K385" s="10"/>
     </row>
-    <row r="386" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="11:11" ht="15" customHeight="1">
       <c r="K386" s="10"/>
     </row>
-    <row r="387" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="11:11">
       <c r="K387" s="10"/>
     </row>
-    <row r="388" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="11:11">
       <c r="K388" s="10"/>
     </row>
-    <row r="389" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="11:11">
       <c r="K389" s="10"/>
     </row>
-    <row r="390" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="11:11">
       <c r="K390" s="10"/>
     </row>
-    <row r="391" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="11:11">
       <c r="K391" s="10"/>
     </row>
-    <row r="392" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="11:11" ht="15" customHeight="1">
       <c r="K392" s="10"/>
     </row>
-    <row r="393" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="11:11">
       <c r="K393" s="10"/>
     </row>
-    <row r="394" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="11:11">
       <c r="K394" s="10"/>
     </row>
-    <row r="395" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="11:11">
       <c r="K395" s="10"/>
     </row>
-    <row r="396" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="11:11">
       <c r="K396" s="10"/>
     </row>
-    <row r="397" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="11:11">
       <c r="K397" s="10"/>
     </row>
-    <row r="398" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="11:11" ht="30" customHeight="1">
       <c r="K398" s="10"/>
     </row>
-    <row r="399" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="11:11">
       <c r="K399" s="10"/>
     </row>
-    <row r="400" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="11:11">
       <c r="K400" s="10"/>
     </row>
-    <row r="401" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="11:11">
       <c r="K401" s="10"/>
     </row>
-    <row r="402" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="11:11">
       <c r="K402" s="10"/>
     </row>
-    <row r="403" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="11:11">
       <c r="K403" s="10"/>
     </row>
-    <row r="404" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="11:11">
       <c r="K404" s="10"/>
     </row>
-    <row r="405" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="11:11">
       <c r="K405" s="10"/>
     </row>
-    <row r="406" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="11:11">
       <c r="K406" s="10"/>
     </row>
-    <row r="407" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="11:11">
       <c r="K407" s="10"/>
     </row>
-    <row r="408" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="11:11">
       <c r="K408" s="10"/>
     </row>
-    <row r="409" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="11:11">
       <c r="K409" s="10"/>
     </row>
-    <row r="410" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="11:11">
       <c r="K410" s="10"/>
     </row>
-    <row r="411" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="11:11" ht="15" customHeight="1">
       <c r="K411" s="10"/>
     </row>
-    <row r="412" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="11:11">
       <c r="K412" s="10"/>
     </row>
-    <row r="413" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="11:11">
       <c r="K413" s="10"/>
     </row>
-    <row r="414" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="11:11">
       <c r="K414" s="10"/>
     </row>
-    <row r="415" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="11:11">
       <c r="K415" s="10"/>
     </row>
-    <row r="416" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="11:11">
       <c r="K416" s="10"/>
     </row>
-    <row r="417" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="11:11">
       <c r="K417" s="10"/>
     </row>
-    <row r="418" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="11:11" ht="15" customHeight="1">
       <c r="K418" s="10"/>
     </row>
-    <row r="419" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="11:11">
       <c r="K419" s="10"/>
     </row>
-    <row r="420" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="11:11">
       <c r="K420" s="10"/>
     </row>
-    <row r="421" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="11:11">
       <c r="K421" s="10"/>
     </row>
-    <row r="422" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="11:11">
       <c r="K422" s="10"/>
     </row>
-    <row r="423" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="11:11">
       <c r="K423" s="10"/>
     </row>
-    <row r="424" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="11:11">
       <c r="K424" s="10"/>
     </row>
-    <row r="425" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="11:11">
       <c r="K425" s="10"/>
     </row>
-    <row r="426" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="11:11">
       <c r="K426" s="10"/>
     </row>
-    <row r="427" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="11:11">
       <c r="K427" s="10"/>
     </row>
-    <row r="428" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="11:11">
       <c r="K428" s="10"/>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="11:11">
       <c r="K429" s="10"/>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="11:11">
       <c r="K430" s="10"/>
     </row>
-    <row r="431" spans="11:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="11:11" ht="30.75" customHeight="1">
       <c r="K431" s="10"/>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="11:11">
       <c r="K432" s="10"/>
     </row>
-    <row r="433" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="11:11">
       <c r="K433" s="10"/>
     </row>
-    <row r="434" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="11:11">
       <c r="K434" s="10"/>
     </row>
-    <row r="435" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="11:11">
       <c r="K435" s="10"/>
     </row>
-    <row r="436" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="11:11">
       <c r="K436" s="10"/>
     </row>
-    <row r="437" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="11:11" ht="30" customHeight="1">
       <c r="K437" s="10"/>
     </row>
-    <row r="438" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="11:11">
       <c r="K438" s="10"/>
     </row>
-    <row r="439" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="11:11">
       <c r="K439" s="10"/>
     </row>
-    <row r="440" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="11:11">
       <c r="K440" s="10"/>
     </row>
-    <row r="441" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="11:11">
       <c r="K441" s="10"/>
     </row>
-    <row r="442" spans="11:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="11:11" ht="45" customHeight="1">
       <c r="K442" s="10"/>
     </row>
-    <row r="443" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="11:11">
       <c r="K443" s="10"/>
     </row>
-    <row r="444" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="11:11">
       <c r="K444" s="10"/>
     </row>
-    <row r="445" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="11:11">
       <c r="K445" s="10"/>
     </row>
-    <row r="446" spans="11:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="11:11" ht="45" customHeight="1">
       <c r="K446" s="10"/>
     </row>
-    <row r="447" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="11:11">
       <c r="K447" s="10"/>
     </row>
-    <row r="448" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="11:11">
       <c r="K448" s="10"/>
     </row>
-    <row r="449" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="11:11">
       <c r="K449" s="10"/>
     </row>
-    <row r="450" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="11:11">
       <c r="K450" s="10"/>
     </row>
-    <row r="451" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="11:11" ht="15" customHeight="1">
       <c r="K451" s="10"/>
     </row>
-    <row r="452" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="11:11" ht="30" customHeight="1">
       <c r="K452" s="10"/>
     </row>
-    <row r="453" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="11:11">
       <c r="K453" s="10"/>
     </row>
-    <row r="454" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="11:11">
       <c r="K454" s="10"/>
     </row>
-    <row r="455" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="11:11">
       <c r="K455" s="10"/>
     </row>
-    <row r="456" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="11:11" ht="15" customHeight="1">
       <c r="K456" s="10"/>
     </row>
-    <row r="457" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="11:11" ht="30" customHeight="1">
       <c r="K457" s="10"/>
     </row>
-    <row r="458" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="11:11">
       <c r="K458" s="10"/>
     </row>
-    <row r="459" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="11:11">
       <c r="K459" s="10"/>
     </row>
-    <row r="460" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="11:11">
       <c r="K460" s="10"/>
     </row>
-    <row r="461" spans="11:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="11:11" ht="51.75" customHeight="1">
       <c r="K461" s="10"/>
     </row>
-    <row r="462" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="11:11">
       <c r="K462" s="10"/>
     </row>
-    <row r="463" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="11:11">
       <c r="K463" s="10"/>
     </row>
-    <row r="464" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="11:11">
       <c r="K464" s="10"/>
     </row>
-    <row r="465" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="11:11">
       <c r="K465" s="10"/>
     </row>
-    <row r="466" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="11:11" ht="15" customHeight="1">
       <c r="K466" s="10"/>
     </row>
-    <row r="467" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="11:11">
       <c r="K467" s="10"/>
     </row>
-    <row r="468" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="11:11">
       <c r="K468" s="10"/>
     </row>
-    <row r="469" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="11:11">
       <c r="K469" s="10"/>
     </row>
-    <row r="470" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="11:11">
       <c r="K470" s="10"/>
     </row>
-    <row r="471" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="11:11">
       <c r="K471" s="10"/>
     </row>
-    <row r="472" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="11:11">
       <c r="K472" s="10"/>
     </row>
-    <row r="473" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="11:11">
       <c r="K473" s="10"/>
     </row>
-    <row r="474" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="11:11">
       <c r="K474" s="10"/>
     </row>
-    <row r="475" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="11:11">
       <c r="K475" s="10"/>
     </row>
-    <row r="476" spans="11:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="11:11" ht="45" customHeight="1">
       <c r="K476" s="10"/>
     </row>
-    <row r="477" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="11:11">
       <c r="K477" s="10"/>
     </row>
-    <row r="478" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="11:11">
       <c r="K478" s="10"/>
     </row>
-    <row r="479" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="11:11">
       <c r="K479" s="10"/>
     </row>
-    <row r="480" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="11:11">
       <c r="K480" s="10"/>
     </row>
-    <row r="481" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="10:11">
       <c r="K481" s="10"/>
     </row>
-    <row r="482" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="10:11">
       <c r="K482" s="10"/>
     </row>
-    <row r="483" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="10:11">
       <c r="K483" s="10"/>
     </row>
-    <row r="484" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="10:11">
       <c r="K484" s="10"/>
     </row>
-    <row r="485" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="10:11">
       <c r="K485" s="10"/>
     </row>
-    <row r="486" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="10:11">
       <c r="K486" s="10"/>
     </row>
-    <row r="487" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="10:11">
       <c r="K487" s="10"/>
     </row>
-    <row r="488" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="10:11">
       <c r="K488" s="10"/>
     </row>
-    <row r="489" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="10:11">
       <c r="K489" s="10"/>
     </row>
-    <row r="490" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="10:11">
       <c r="K490" s="10"/>
     </row>
-    <row r="491" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="10:11">
       <c r="J491" s="10"/>
       <c r="K491" s="10"/>
     </row>
-    <row r="492" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="10:11">
       <c r="J492" s="10"/>
       <c r="K492" s="10"/>
     </row>
-    <row r="493" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="10:11">
       <c r="J493" s="10"/>
       <c r="K493" s="10"/>
     </row>
-    <row r="494" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="10:11">
       <c r="J494" s="10"/>
       <c r="K494" s="10"/>
     </row>
-    <row r="495" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="10:11">
       <c r="J495" s="10"/>
       <c r="K495" s="10"/>
     </row>
-    <row r="496" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="10:11">
       <c r="J496" s="10"/>
       <c r="K496" s="10"/>
     </row>
-    <row r="497" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="10:11">
       <c r="J497" s="10"/>
       <c r="K497" s="10"/>
     </row>
-    <row r="498" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="10:11">
       <c r="J498" s="10"/>
       <c r="K498" s="10"/>
     </row>
-    <row r="499" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="10:11">
       <c r="J499" s="10"/>
       <c r="K499" s="10"/>
     </row>
-    <row r="500" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="10:11">
       <c r="J500" s="10"/>
       <c r="K500" s="10"/>
     </row>
-    <row r="501" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="10:11">
       <c r="J501" s="10"/>
       <c r="K501" s="10"/>
     </row>
-    <row r="502" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="10:11">
       <c r="J502" s="10"/>
       <c r="K502" s="10"/>
     </row>
-    <row r="503" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="10:11">
       <c r="J503" s="10"/>
       <c r="K503" s="10"/>
     </row>
-    <row r="504" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="10:11">
       <c r="J504" s="10"/>
       <c r="K504" s="10"/>
     </row>
-    <row r="505" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="10:11">
       <c r="J505" s="10"/>
       <c r="K505" s="10"/>
     </row>
-    <row r="506" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="10:11">
       <c r="J506" s="10"/>
       <c r="K506" s="10"/>
     </row>
-    <row r="507" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="10:11">
       <c r="J507" s="10"/>
       <c r="K507" s="10"/>
     </row>
-    <row r="508" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="10:11">
       <c r="J508" s="10"/>
       <c r="K508" s="10"/>
     </row>
-    <row r="509" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="10:11">
       <c r="J509" s="10"/>
       <c r="K509" s="10"/>
     </row>
-    <row r="510" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="10:11">
       <c r="J510" s="10"/>
       <c r="K510" s="10"/>
     </row>
-    <row r="511" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="10:11">
       <c r="J511" s="10"/>
       <c r="K511" s="10"/>
     </row>
-    <row r="512" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="10:11">
       <c r="J512" s="10"/>
       <c r="K512" s="10"/>
     </row>
-    <row r="513" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="10:11">
       <c r="J513" s="10"/>
       <c r="K513" s="10"/>
     </row>
-    <row r="514" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="10:11">
       <c r="J514" s="10"/>
       <c r="K514" s="10"/>
     </row>
-    <row r="515" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="10:11">
       <c r="J515" s="10"/>
       <c r="K515" s="10"/>
     </row>
-    <row r="516" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="10:11" ht="45" customHeight="1">
       <c r="J516" s="10"/>
       <c r="K516" s="10"/>
     </row>
-    <row r="517" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="10:11">
       <c r="J517" s="10"/>
       <c r="K517" s="10"/>
     </row>
-    <row r="518" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="10:11">
       <c r="J518" s="10"/>
       <c r="K518" s="10"/>
     </row>
-    <row r="519" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="10:11">
       <c r="J519" s="10"/>
       <c r="K519" s="10"/>
     </row>
-    <row r="520" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="10:11">
       <c r="J520" s="10"/>
       <c r="K520" s="10"/>
     </row>
-    <row r="521" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="10:11">
       <c r="J521" s="10"/>
       <c r="K521" s="10"/>
     </row>
-    <row r="522" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="10:11">
       <c r="J522" s="10"/>
       <c r="K522" s="10"/>
     </row>
-    <row r="523" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="10:11">
       <c r="J523" s="10"/>
       <c r="K523" s="10"/>
     </row>
-    <row r="524" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="10:11">
       <c r="J524" s="10"/>
       <c r="K524" s="10"/>
     </row>
-    <row r="525" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="10:11">
       <c r="J525" s="10"/>
       <c r="K525" s="10"/>
     </row>
-    <row r="526" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="10:11">
       <c r="J526" s="10"/>
       <c r="K526" s="10"/>
     </row>
-    <row r="527" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="10:11">
       <c r="J527" s="10"/>
       <c r="K527" s="10"/>
     </row>
-    <row r="528" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="10:11">
       <c r="J528" s="10"/>
       <c r="K528" s="10"/>
     </row>
-    <row r="529" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="10:11">
       <c r="J529" s="10"/>
       <c r="K529" s="10"/>
     </row>
-    <row r="530" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="10:11">
       <c r="J530" s="10"/>
       <c r="K530" s="10"/>
     </row>
-    <row r="531" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="10:11">
       <c r="J531" s="10"/>
       <c r="K531" s="10"/>
     </row>
-    <row r="532" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="10:11">
       <c r="J532" s="10"/>
       <c r="K532" s="10"/>
     </row>
-    <row r="533" spans="10:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="10:11" ht="27" customHeight="1">
       <c r="J533" s="10"/>
       <c r="K533" s="10"/>
     </row>
-    <row r="534" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="10:11">
       <c r="J534" s="10"/>
       <c r="K534" s="10"/>
     </row>
-    <row r="535" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="10:11">
       <c r="J535" s="10"/>
       <c r="K535" s="10"/>
     </row>
-    <row r="536" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="10:11">
       <c r="J536" s="10"/>
       <c r="K536" s="10"/>
     </row>
-    <row r="537" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="10:11">
       <c r="J537" s="10"/>
       <c r="K537" s="10"/>
     </row>
-    <row r="538" spans="10:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="10:11" ht="30.75" customHeight="1">
       <c r="J538" s="10"/>
       <c r="K538" s="10"/>
     </row>
-    <row r="539" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="10:11">
       <c r="J539" s="10"/>
       <c r="K539" s="10"/>
     </row>
-    <row r="540" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="10:11">
       <c r="J540" s="10"/>
       <c r="K540" s="10"/>
     </row>
-    <row r="541" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="10:11">
       <c r="J541" s="10"/>
       <c r="K541" s="10"/>
     </row>
-    <row r="542" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="10:11">
       <c r="J542" s="10"/>
       <c r="K542" s="10"/>
     </row>
-    <row r="543" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="10:11">
       <c r="J543" s="10"/>
       <c r="K543" s="10"/>
     </row>
-    <row r="544" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="10:11">
       <c r="J544" s="10"/>
       <c r="K544" s="10"/>
     </row>
-    <row r="545" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="10:11">
       <c r="J545" s="10"/>
       <c r="K545" s="10"/>
     </row>
-    <row r="546" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="10:11">
       <c r="J546" s="10"/>
       <c r="K546" s="10"/>
     </row>
-    <row r="547" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="10:11">
       <c r="J547" s="10"/>
       <c r="K547" s="10"/>
     </row>
-    <row r="548" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="10:11">
       <c r="J548" s="10"/>
       <c r="K548" s="10"/>
     </row>
-    <row r="549" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="10:11">
       <c r="J549" s="10"/>
       <c r="K549" s="10"/>
     </row>
-    <row r="550" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="10:11">
       <c r="J550" s="10"/>
       <c r="K550" s="10"/>
     </row>
-    <row r="551" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="10:11">
       <c r="J551" s="10"/>
       <c r="K551" s="10"/>
     </row>
-    <row r="552" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="10:11">
       <c r="J552" s="10"/>
       <c r="K552" s="10"/>
     </row>
-    <row r="553" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="10:11">
       <c r="J553" s="10"/>
       <c r="K553" s="10"/>
     </row>
-    <row r="554" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="10:11">
       <c r="J554" s="10"/>
       <c r="K554" s="10"/>
     </row>
-    <row r="555" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="10:11">
       <c r="J555" s="10"/>
       <c r="K555" s="10"/>
     </row>
-    <row r="556" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="10:11">
       <c r="J556" s="10"/>
       <c r="K556" s="10"/>
     </row>
-    <row r="557" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="10:11">
       <c r="J557" s="10"/>
       <c r="K557" s="10"/>
     </row>
-    <row r="558" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="10:11">
       <c r="J558" s="10"/>
       <c r="K558" s="10"/>
     </row>
-    <row r="559" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="10:11">
       <c r="J559" s="10"/>
       <c r="K559" s="10"/>
     </row>
-    <row r="560" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="10:11">
       <c r="J560" s="10"/>
       <c r="K560" s="10"/>
     </row>
-    <row r="561" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="10:11">
       <c r="J561" s="10"/>
       <c r="K561" s="10"/>
     </row>
-    <row r="562" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="10:11" ht="45" customHeight="1">
       <c r="J562" s="10"/>
       <c r="K562" s="10"/>
     </row>
-    <row r="563" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="10:11">
       <c r="J563" s="10"/>
       <c r="K563" s="10"/>
     </row>
-    <row r="564" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="10:11">
       <c r="J564" s="10"/>
       <c r="K564" s="10"/>
     </row>
-    <row r="565" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="10:11">
       <c r="J565" s="10"/>
       <c r="K565" s="10"/>
     </row>
-    <row r="566" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="10:11" ht="45" customHeight="1">
       <c r="J566" s="10"/>
       <c r="K566" s="10"/>
     </row>
-    <row r="567" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="10:11">
       <c r="J567" s="10"/>
       <c r="K567" s="10"/>
     </row>
-    <row r="568" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="10:11">
       <c r="J568" s="10"/>
       <c r="K568" s="10"/>
     </row>
-    <row r="569" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="10:11">
       <c r="J569" s="10"/>
       <c r="K569" s="10"/>
     </row>
-    <row r="570" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="10:11" ht="45" customHeight="1">
       <c r="J570" s="10"/>
       <c r="K570" s="10"/>
     </row>
-    <row r="571" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="10:11">
       <c r="J571" s="10"/>
       <c r="K571" s="10"/>
     </row>
-    <row r="572" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="10:11">
       <c r="J572" s="10"/>
       <c r="K572" s="10"/>
     </row>
-    <row r="573" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="10:11">
       <c r="J573" s="10"/>
       <c r="K573" s="10"/>
     </row>
-    <row r="574" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="10:11">
       <c r="J574" s="10"/>
       <c r="K574" s="10"/>
     </row>
-    <row r="575" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="10:11" ht="45" customHeight="1">
       <c r="J575" s="10"/>
       <c r="K575" s="10"/>
     </row>
-    <row r="576" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="10:11">
       <c r="J576" s="10"/>
       <c r="K576" s="10"/>
     </row>
-    <row r="577" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="10:11">
       <c r="J577" s="10"/>
       <c r="K577" s="10"/>
     </row>
-    <row r="578" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="10:11">
       <c r="J578" s="10"/>
       <c r="K578" s="10"/>
     </row>
-    <row r="579" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="10:11">
       <c r="J579" s="10"/>
       <c r="K579" s="10"/>
     </row>
-    <row r="580" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="10:11" ht="45" customHeight="1">
       <c r="J580" s="10"/>
       <c r="K580" s="10"/>
     </row>
-    <row r="581" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="10:11">
       <c r="J581" s="10"/>
       <c r="K581" s="10"/>
     </row>
-    <row r="582" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="10:11">
       <c r="J582" s="10"/>
       <c r="K582" s="10"/>
     </row>
-    <row r="583" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="10:11">
       <c r="J583" s="10"/>
       <c r="K583" s="10"/>
     </row>
-    <row r="584" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="10:11">
       <c r="J584" s="10"/>
       <c r="K584" s="10"/>
     </row>
-    <row r="585" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="10:11">
       <c r="J585" s="10"/>
       <c r="K585" s="10"/>
     </row>
-    <row r="586" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="10:11">
       <c r="J586" s="10"/>
       <c r="K586" s="10"/>
     </row>
-    <row r="587" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="10:11">
       <c r="J587" s="10"/>
       <c r="K587" s="10"/>
     </row>
-    <row r="588" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="10:11">
       <c r="J588" s="10"/>
       <c r="K588" s="10"/>
     </row>
-    <row r="589" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="10:11">
       <c r="J589" s="10"/>
       <c r="K589" s="10"/>
     </row>
-    <row r="590" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="10:11">
       <c r="J590" s="10"/>
       <c r="K590" s="10"/>
     </row>
-    <row r="591" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="10:11">
       <c r="J591" s="10"/>
       <c r="K591" s="10"/>
     </row>
-    <row r="592" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="10:11">
       <c r="J592" s="10"/>
       <c r="K592" s="10"/>
     </row>
-    <row r="593" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="10:11">
       <c r="J593" s="10"/>
       <c r="K593" s="10"/>
     </row>
-    <row r="594" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="10:11">
       <c r="J594" s="10"/>
       <c r="K594" s="10"/>
     </row>
-    <row r="595" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="10:11">
       <c r="J595" s="10"/>
       <c r="K595" s="10"/>
     </row>
-    <row r="596" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="10:11">
       <c r="J596" s="10"/>
       <c r="K596" s="10"/>
     </row>
-    <row r="597" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="10:11">
       <c r="J597" s="10"/>
       <c r="K597" s="10"/>
     </row>
-    <row r="598" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="10:11">
       <c r="J598" s="10"/>
       <c r="K598" s="10"/>
     </row>
-    <row r="599" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="10:11">
       <c r="J599" s="10"/>
       <c r="K599" s="10"/>
     </row>
-    <row r="600" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="10:11">
       <c r="J600" s="10"/>
       <c r="K600" s="10"/>
     </row>
-    <row r="601" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="10:11">
       <c r="J601" s="10"/>
       <c r="K601" s="10"/>
     </row>
-    <row r="602" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="10:11">
       <c r="J602" s="10"/>
       <c r="K602" s="10"/>
     </row>
-    <row r="603" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="10:11">
       <c r="J603" s="10"/>
       <c r="K603" s="10"/>
     </row>
-    <row r="604" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="10:11">
       <c r="J604" s="10"/>
       <c r="K604" s="10"/>
     </row>
-    <row r="605" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="10:11">
       <c r="J605" s="10"/>
       <c r="K605" s="10"/>
     </row>
-    <row r="606" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="10:11">
       <c r="J606" s="10"/>
       <c r="K606" s="10"/>
     </row>
-    <row r="607" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="10:11">
       <c r="J607" s="10"/>
       <c r="K607" s="10"/>
     </row>
-    <row r="608" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="10:11">
       <c r="J608" s="10"/>
       <c r="K608" s="10"/>
     </row>
-    <row r="609" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="10:11">
       <c r="J609" s="10"/>
       <c r="K609" s="10"/>
     </row>
-    <row r="610" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="10:11">
       <c r="J610" s="10"/>
       <c r="K610" s="10"/>
     </row>
-    <row r="611" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="10:11">
       <c r="J611" s="10"/>
       <c r="K611" s="10"/>
     </row>
-    <row r="612" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="10:11">
       <c r="J612" s="10"/>
       <c r="K612" s="10"/>
     </row>
-    <row r="613" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="10:11">
       <c r="J613" s="10"/>
       <c r="K613" s="10"/>
     </row>
-    <row r="614" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="10:11">
       <c r="J614" s="10"/>
       <c r="K614" s="10"/>
     </row>
-    <row r="615" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="10:11">
       <c r="J615" s="10"/>
       <c r="K615" s="10"/>
     </row>
-    <row r="616" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="10:11">
       <c r="J616" s="10"/>
       <c r="K616" s="10"/>
     </row>
-    <row r="617" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="10:11">
       <c r="J617" s="10"/>
       <c r="K617" s="10"/>
     </row>
-    <row r="618" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="10:11">
       <c r="J618" s="10"/>
       <c r="K618" s="10"/>
     </row>
-    <row r="619" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="10:11">
       <c r="J619" s="10"/>
       <c r="K619" s="10"/>
     </row>
-    <row r="620" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="10:11">
       <c r="J620" s="10"/>
       <c r="K620" s="10"/>
     </row>
-    <row r="621" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="10:11">
       <c r="J621" s="10"/>
       <c r="K621" s="10"/>
     </row>
-    <row r="622" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="10:11">
       <c r="J622" s="10"/>
       <c r="K622" s="10"/>
     </row>
-    <row r="623" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="10:11">
       <c r="J623" s="10"/>
       <c r="K623" s="10"/>
     </row>
-    <row r="624" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="10:11">
       <c r="J624" s="10"/>
       <c r="K624" s="10"/>
     </row>
-    <row r="625" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="10:11">
       <c r="J625" s="10"/>
       <c r="K625" s="10"/>
     </row>
-    <row r="626" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="10:11">
       <c r="J626" s="10"/>
       <c r="K626" s="10"/>
     </row>
-    <row r="627" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="10:11">
       <c r="J627" s="10"/>
       <c r="K627" s="10"/>
     </row>
-    <row r="628" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="10:11">
       <c r="J628" s="10"/>
       <c r="K628" s="10"/>
     </row>
-    <row r="629" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="10:11">
       <c r="J629" s="10"/>
       <c r="K629" s="10"/>
     </row>
-    <row r="630" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="10:11">
       <c r="J630" s="10"/>
       <c r="K630" s="10"/>
     </row>
-    <row r="631" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="10:11">
       <c r="J631" s="10"/>
       <c r="K631" s="10"/>
     </row>
-    <row r="632" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="10:11">
       <c r="J632" s="10"/>
       <c r="K632" s="10"/>
     </row>
-    <row r="633" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="10:11">
       <c r="J633" s="10"/>
       <c r="K633" s="10"/>
     </row>
-    <row r="634" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="10:11">
       <c r="J634" s="10"/>
       <c r="K634" s="10"/>
     </row>
-    <row r="635" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="10:11">
       <c r="J635" s="10"/>
       <c r="K635" s="10"/>
     </row>
-    <row r="636" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="10:11">
       <c r="J636" s="10"/>
       <c r="K636" s="10"/>
     </row>
-    <row r="637" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="10:11">
       <c r="J637" s="10"/>
       <c r="K637" s="10"/>
     </row>
-    <row r="638" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="10:11">
       <c r="J638" s="10"/>
       <c r="K638" s="10"/>
     </row>
-    <row r="639" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="10:11">
       <c r="J639" s="10"/>
       <c r="K639" s="10"/>
     </row>
-    <row r="640" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="10:11">
       <c r="J640" s="10"/>
       <c r="K640" s="10"/>
     </row>
-    <row r="641" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="10:11">
       <c r="J641" s="10"/>
       <c r="K641" s="10"/>
     </row>
-    <row r="642" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="10:11">
       <c r="J642" s="10"/>
       <c r="K642" s="10"/>
     </row>
-    <row r="643" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="10:11">
       <c r="J643" s="10"/>
       <c r="K643" s="10"/>
     </row>
-    <row r="644" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="10:11">
       <c r="J644" s="10"/>
       <c r="K644" s="10"/>
     </row>
-    <row r="645" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="10:11">
       <c r="J645" s="10"/>
       <c r="K645" s="10"/>
     </row>
-    <row r="646" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="10:11">
       <c r="J646" s="10"/>
       <c r="K646" s="10"/>
     </row>
-    <row r="647" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="10:11">
       <c r="J647" s="10"/>
       <c r="K647" s="10"/>
     </row>
-    <row r="648" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="10:11">
       <c r="J648" s="10"/>
       <c r="K648" s="10"/>
     </row>
-    <row r="649" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="10:11">
       <c r="J649" s="10"/>
       <c r="K649" s="10"/>
     </row>
-    <row r="650" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="10:11">
       <c r="J650" s="10"/>
       <c r="K650" s="10"/>
     </row>
-    <row r="651" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="10:11">
       <c r="J651" s="10"/>
       <c r="K651" s="10"/>
     </row>
-    <row r="652" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="10:11">
       <c r="J652" s="10"/>
       <c r="K652" s="10"/>
     </row>
-    <row r="653" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="10:11">
       <c r="J653" s="10"/>
       <c r="K653" s="10"/>
     </row>
-    <row r="654" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="10:11">
       <c r="J654" s="10"/>
       <c r="K654" s="10"/>
     </row>
-    <row r="655" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="10:11">
       <c r="J655" s="10"/>
       <c r="K655" s="10"/>
     </row>
-    <row r="656" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="10:11">
       <c r="J656" s="10"/>
       <c r="K656" s="10"/>
     </row>
-    <row r="657" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="10:11">
       <c r="J657" s="10"/>
       <c r="K657" s="10"/>
     </row>
-    <row r="658" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="10:11">
       <c r="J658" s="10"/>
       <c r="K658" s="10"/>
     </row>
-    <row r="659" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="10:11">
       <c r="J659" s="10"/>
       <c r="K659" s="10"/>
     </row>
-    <row r="660" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="10:11">
       <c r="J660" s="10"/>
       <c r="K660" s="10"/>
     </row>
-    <row r="661" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="10:11">
       <c r="J661" s="10"/>
       <c r="K661" s="10"/>
     </row>
-    <row r="662" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="10:11">
       <c r="J662" s="10"/>
       <c r="K662" s="10"/>
     </row>
-    <row r="663" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="10:11">
       <c r="J663" s="10"/>
       <c r="K663" s="10"/>
     </row>
-    <row r="664" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="10:11">
       <c r="J664" s="10"/>
       <c r="K664" s="10"/>
     </row>
-    <row r="665" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="10:11">
       <c r="J665" s="10"/>
       <c r="K665" s="10"/>
     </row>
-    <row r="666" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="10:11">
       <c r="J666" s="10"/>
       <c r="K666" s="10"/>
     </row>
-    <row r="667" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="10:11">
       <c r="J667" s="10"/>
       <c r="K667" s="10"/>
     </row>
-    <row r="668" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="10:11">
       <c r="J668" s="10"/>
       <c r="K668" s="10"/>
     </row>
-    <row r="669" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="10:11">
       <c r="J669" s="10"/>
       <c r="K669" s="10"/>
     </row>
-    <row r="670" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="10:11">
       <c r="J670" s="10"/>
       <c r="K670" s="10"/>
     </row>
-    <row r="671" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="10:11">
       <c r="J671" s="10"/>
       <c r="K671" s="10"/>
     </row>
-    <row r="672" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="10:11">
       <c r="J672" s="10"/>
       <c r="K672" s="10"/>
     </row>
-    <row r="673" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="10:11">
       <c r="J673" s="10"/>
       <c r="K673" s="10"/>
     </row>
-    <row r="674" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="10:11">
       <c r="J674" s="10"/>
       <c r="K674" s="10"/>
     </row>
-    <row r="675" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="10:11">
       <c r="J675" s="10"/>
       <c r="K675" s="10"/>
     </row>
-    <row r="676" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="10:11">
       <c r="J676" s="10"/>
       <c r="K676" s="10"/>
     </row>
-    <row r="677" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="10:11">
       <c r="J677" s="10"/>
       <c r="K677" s="10"/>
     </row>
-    <row r="678" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="10:11">
       <c r="J678" s="10"/>
       <c r="K678" s="10"/>
     </row>
-    <row r="679" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="10:11">
       <c r="J679" s="10"/>
       <c r="K679" s="10"/>
     </row>
-    <row r="680" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="10:11">
       <c r="J680" s="10"/>
       <c r="K680" s="10"/>
     </row>
-    <row r="681" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="10:11">
       <c r="J681" s="10"/>
       <c r="K681" s="10"/>
     </row>
-    <row r="682" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="10:11">
       <c r="J682" s="10"/>
       <c r="K682" s="10"/>
     </row>
-    <row r="683" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="10:11">
       <c r="J683" s="10"/>
       <c r="K683" s="10"/>
     </row>
-    <row r="684" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="10:11">
       <c r="J684" s="10"/>
       <c r="K684" s="10"/>
     </row>
-    <row r="685" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="10:11">
       <c r="J685" s="10"/>
       <c r="K685" s="10"/>
     </row>
-    <row r="686" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="10:11">
       <c r="J686" s="10"/>
       <c r="K686" s="10"/>
     </row>
-    <row r="687" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="10:11">
       <c r="J687" s="10"/>
       <c r="K687" s="10"/>
     </row>
-    <row r="688" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="10:11">
       <c r="K688" s="10"/>
     </row>
-    <row r="689" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="11:11">
       <c r="K689" s="10"/>
     </row>
-    <row r="690" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="11:11">
       <c r="K690" s="10"/>
     </row>
-    <row r="691" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="11:11">
       <c r="K691" s="10"/>
     </row>
-    <row r="692" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="11:11">
       <c r="K692" s="10"/>
     </row>
-    <row r="693" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="11:11">
       <c r="K693" s="10"/>
     </row>
-    <row r="694" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="11:11">
       <c r="K694" s="10"/>
     </row>
-    <row r="695" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="11:11">
       <c r="K695" s="10"/>
     </row>
-    <row r="696" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="11:11">
       <c r="K696" s="10"/>
     </row>
-    <row r="697" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="11:11">
       <c r="K697" s="10"/>
     </row>
-    <row r="698" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="11:11">
       <c r="K698" s="10"/>
     </row>
-    <row r="699" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="11:11">
       <c r="K699" s="10"/>
     </row>
-    <row r="700" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="11:11">
       <c r="K700" s="10"/>
     </row>
-    <row r="701" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="11:11">
       <c r="K701" s="10"/>
     </row>
-    <row r="702" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="11:11">
       <c r="K702" s="10"/>
     </row>
-    <row r="703" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="11:11">
       <c r="K703" s="10"/>
     </row>
-    <row r="704" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="11:11">
       <c r="K704" s="10"/>
     </row>
-    <row r="705" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="11:11">
       <c r="K705" s="10"/>
     </row>
-    <row r="706" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="11:11">
       <c r="K706" s="10"/>
     </row>
-    <row r="707" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="11:11">
       <c r="K707" s="10"/>
     </row>
-    <row r="708" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="11:11">
       <c r="K708" s="10"/>
     </row>
-    <row r="709" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="11:11">
       <c r="K709" s="10"/>
     </row>
-    <row r="710" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="11:11">
       <c r="K710" s="10"/>
     </row>
-    <row r="711" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="11:11">
       <c r="K711" s="10"/>
     </row>
-    <row r="712" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="11:11">
       <c r="K712" s="10"/>
     </row>
-    <row r="713" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="11:11">
       <c r="K713" s="10"/>
     </row>
-    <row r="714" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="11:11">
       <c r="K714" s="10"/>
     </row>
-    <row r="715" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="11:11">
       <c r="K715" s="10"/>
     </row>
-    <row r="716" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="11:11">
       <c r="K716" s="10"/>
     </row>
-    <row r="717" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="11:11">
       <c r="K717" s="10"/>
     </row>
-    <row r="718" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="11:11">
       <c r="K718" s="10"/>
     </row>
-    <row r="719" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="11:11">
       <c r="K719" s="10"/>
     </row>
-    <row r="720" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="11:11">
       <c r="K720" s="10"/>
     </row>
-    <row r="721" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="11:11">
       <c r="K721" s="10"/>
     </row>
-    <row r="722" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="11:11">
       <c r="K722" s="10"/>
     </row>
-    <row r="723" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="11:11">
       <c r="K723" s="10"/>
     </row>
-    <row r="724" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="11:11">
       <c r="K724" s="10"/>
     </row>
-    <row r="725" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="11:11">
       <c r="K725" s="10"/>
     </row>
-    <row r="726" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="11:11">
       <c r="K726" s="10"/>
     </row>
-    <row r="727" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="11:11">
       <c r="K727" s="10"/>
     </row>
-    <row r="728" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="11:11">
       <c r="K728" s="10"/>
     </row>
-    <row r="729" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="11:11">
       <c r="K729" s="10"/>
     </row>
-    <row r="730" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="11:11">
       <c r="K730" s="10"/>
     </row>
-    <row r="731" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="11:11">
       <c r="K731" s="10"/>
     </row>
-    <row r="732" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="11:11">
       <c r="K732" s="10"/>
     </row>
   </sheetData>
@@ -8190,82 +8186,82 @@
     <mergeCell ref="D21:D22"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K732" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K732">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J491:J687" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J491:J687">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J490" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J490">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{EEFF7FF5-80EC-42C7-B21D-6A0514C14434}"/>
-    <hyperlink ref="H26" r:id="rId2" display="http://mediwarecloud.com/" xr:uid="{1DD29659-22B6-40B8-AFCE-694550816AF1}"/>
-    <hyperlink ref="H28" r:id="rId3" display="http://mediwarecloud.com/" xr:uid="{65646D77-0E34-48B3-BEC3-141B820A2CB0}"/>
-    <hyperlink ref="H22" r:id="rId4" display="http://mediwarecloud.com/" xr:uid="{7784FC21-B3BC-4E5D-B895-F1CACB2F9A19}"/>
-    <hyperlink ref="H10" r:id="rId5" display="http://mediwarecloud.com/" xr:uid="{F1D48269-8C83-4B20-95E1-3B51380E9BA6}"/>
-    <hyperlink ref="H50" r:id="rId6" display="http://mediwarecloud.com/" xr:uid="{334F76C4-16EA-4714-9489-60A5B8E99B9E}"/>
-    <hyperlink ref="H105" r:id="rId7" display="http://mediwarecloud.com/" xr:uid="{9022D858-CFCF-4F96-A271-CEDC635E6B03}"/>
-    <hyperlink ref="H100" r:id="rId8" display="http://mediwarecloud.com/" xr:uid="{F2BA829C-E860-45A3-8695-D3D07D8E1B60}"/>
-    <hyperlink ref="H68" r:id="rId9" display="http://mediwarecloud.com/" xr:uid="{476F1330-5BF8-4764-A473-94F31C566A85}"/>
-    <hyperlink ref="H67" r:id="rId10" display="http://mediwarecloud.com/" xr:uid="{5C9665B3-92E9-4544-848B-A67857059F84}"/>
-    <hyperlink ref="H66" r:id="rId11" display="http://mediwarecloud.com/" xr:uid="{4EC2EFEB-2F67-4C7E-ADD6-482FA5F47BF4}"/>
-    <hyperlink ref="H37" r:id="rId12" display="http://mediwarecloud.com/" xr:uid="{DD6BE179-C941-4654-9922-3B472823F746}"/>
-    <hyperlink ref="H36" r:id="rId13" display="http://mediwarecloud.com/" xr:uid="{EA3573B8-8740-40A7-A151-DB34A1217985}"/>
-    <hyperlink ref="H23" r:id="rId14" display="http://mediwarecloud.com/" xr:uid="{66EA3244-5469-44FB-9AE8-41A84D4ABD18}"/>
-    <hyperlink ref="H24" r:id="rId15" display="http://mediwarecloud.com/" xr:uid="{49959DB1-0CBE-4703-9A6F-69B522CE6054}"/>
-    <hyperlink ref="H25" r:id="rId16" display="http://mediwarecloud.com/" xr:uid="{3EF6DCC6-4744-4D5C-9225-AEFB12ACA77B}"/>
-    <hyperlink ref="H39" r:id="rId17" xr:uid="{EC446650-F7CF-4FB1-B8A3-64D69858B161}"/>
-    <hyperlink ref="H46" r:id="rId18" xr:uid="{2466996F-F454-4F93-8978-6A2ADE4F3339}"/>
-    <hyperlink ref="H75" r:id="rId19" xr:uid="{51FB5BB0-B64B-46D3-A5FF-FF83A9966279}"/>
-    <hyperlink ref="H77" r:id="rId20" xr:uid="{CBF6089C-1942-4EA9-BCAA-C128E4B98197}"/>
-    <hyperlink ref="H79" r:id="rId21" xr:uid="{0609D9A9-A47D-4AA1-8AFA-E88A693A1D15}"/>
-    <hyperlink ref="H81" r:id="rId22" xr:uid="{D46BB6DA-E2FB-4FB3-BF04-EC5F84BA534C}"/>
-    <hyperlink ref="H84" r:id="rId23" xr:uid="{028400FD-80E2-4D92-A8F5-34D72EC8DD48}"/>
-    <hyperlink ref="H86" r:id="rId24" xr:uid="{DC8BC6AC-1164-4E51-BB86-7CD29637D192}"/>
-    <hyperlink ref="H90" r:id="rId25" xr:uid="{FBB412BF-65B3-456A-BC05-E1290E2B90B0}"/>
-    <hyperlink ref="H93" r:id="rId26" xr:uid="{BC961AE8-54ED-4AD6-BAF4-2B3CC6709EC2}"/>
-    <hyperlink ref="H95" r:id="rId27" xr:uid="{3276F857-E8DD-445E-ADA6-E824DC726B79}"/>
-    <hyperlink ref="H97" r:id="rId28" xr:uid="{322B78F7-0315-4977-90C8-1C42A7B47B8D}"/>
-    <hyperlink ref="H73" r:id="rId29" xr:uid="{695E96D1-3063-412B-B85F-F0A1C6E31E8E}"/>
-    <hyperlink ref="H69" r:id="rId30" xr:uid="{AA5491D3-7627-4CA0-A3E6-0A17B41FE09C}"/>
-    <hyperlink ref="H70" r:id="rId31" xr:uid="{56A147AD-09AF-4E74-B820-CFD97E5DAB27}"/>
-    <hyperlink ref="H82" r:id="rId32" xr:uid="{B83E515E-8BCD-46AC-8B2F-B2D2912BC5FC}"/>
-    <hyperlink ref="H107" r:id="rId33" xr:uid="{3DAD3CAF-8567-4C09-8C36-F388650C7837}"/>
-    <hyperlink ref="H111" r:id="rId34" xr:uid="{6F5583F0-CB11-4C18-83F7-A3104475CA84}"/>
-    <hyperlink ref="H113" r:id="rId35" xr:uid="{C75990B9-5DE0-4CEC-8CF2-E53EE52FC1D5}"/>
-    <hyperlink ref="H115" r:id="rId36" xr:uid="{748219CA-7D74-43DD-B156-0B9A57A3EDB4}"/>
-    <hyperlink ref="H117" r:id="rId37" xr:uid="{E365C81A-9145-4548-9FD2-61038734DAF2}"/>
-    <hyperlink ref="H119" r:id="rId38" xr:uid="{DF55FE8C-7C9F-4EFA-A925-8CB8281F1679}"/>
-    <hyperlink ref="H120" r:id="rId39" xr:uid="{8C6B65D9-9887-4FEE-BFAA-0A7FEBEE13FB}"/>
-    <hyperlink ref="H121" r:id="rId40" xr:uid="{8ADDEE90-7393-4202-BB45-EDB76D3F6FD9}"/>
-    <hyperlink ref="H122" r:id="rId41" xr:uid="{6115B074-6493-46FA-A519-036E07C5E361}"/>
-    <hyperlink ref="H123" r:id="rId42" xr:uid="{63BFDFD1-0756-40F3-A15D-A7CBE36673A7}"/>
-    <hyperlink ref="H124" r:id="rId43" xr:uid="{A6D669A6-E8A3-4B94-B324-9A36359C0324}"/>
-    <hyperlink ref="H125:H128" r:id="rId44" display="http://mediwarecloud.com" xr:uid="{22359CE5-9459-4E70-9EF9-028F440675C5}"/>
-    <hyperlink ref="H129" r:id="rId45" xr:uid="{59EB93F0-9441-4CEC-B340-285B859EEE62}"/>
-    <hyperlink ref="H133" r:id="rId46" xr:uid="{FF4BFDA9-A526-49F5-B3ED-5C19BC30741E}"/>
-    <hyperlink ref="H134" r:id="rId47" xr:uid="{A9DC8A37-C65B-458B-A5E1-BF1A9CB62791}"/>
-    <hyperlink ref="H135" r:id="rId48" xr:uid="{9D5468DD-483E-4B6A-AEB7-15FE6F6015C1}"/>
-    <hyperlink ref="H138" r:id="rId49" xr:uid="{11E5172E-C646-4320-B4F1-8968470DF30F}"/>
-    <hyperlink ref="H139" r:id="rId50" xr:uid="{155D07AA-0EEB-4FCB-A95D-0BF2EE55F382}"/>
-    <hyperlink ref="H141" r:id="rId51" xr:uid="{A93A6633-BE07-467F-8F67-454F57A45F6C}"/>
-    <hyperlink ref="H142" r:id="rId52" xr:uid="{654EBC9B-5F8C-44A4-8430-0E5D034014A8}"/>
-    <hyperlink ref="H146" r:id="rId53" xr:uid="{EEFBDDEA-01CB-4DFE-9FE3-BFDE8100C677}"/>
-    <hyperlink ref="H179" r:id="rId54" display="http://mediwarecloud.com/" xr:uid="{0E0CFC38-5583-4818-A710-346119E58362}"/>
-    <hyperlink ref="H177" r:id="rId55" xr:uid="{ACA3A6B3-6A9E-4A53-B93F-8DE4989B3CD1}"/>
-    <hyperlink ref="H170" r:id="rId56" display="http://mediwarecloud.com/" xr:uid="{DCD71BB4-BA07-4BA9-96DF-B6F28D94AAAD}"/>
-    <hyperlink ref="H175" r:id="rId57" display="http://mediwarecloud.com/" xr:uid="{7BBE1255-D6FC-429B-BB33-2B00DFC32864}"/>
-    <hyperlink ref="H164" r:id="rId58" display="http://mediwarecloud.com/" xr:uid="{096AC661-3FE6-4BE0-8087-1BE8905C57EA}"/>
-    <hyperlink ref="H167" r:id="rId59" display="http://mediwarecloud.com/" xr:uid="{066F5EA4-00EF-4E69-8283-54BB32E254D2}"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H26" r:id="rId2" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H28" r:id="rId3" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H22" r:id="rId4" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H10" r:id="rId5" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H50" r:id="rId6" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H105" r:id="rId7" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H100" r:id="rId8" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H68" r:id="rId9" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H67" r:id="rId10" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H66" r:id="rId11" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H37" r:id="rId12" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H36" r:id="rId13" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H23" r:id="rId14" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H24" r:id="rId15" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H25" r:id="rId16" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H39" r:id="rId17"/>
+    <hyperlink ref="H46" r:id="rId18"/>
+    <hyperlink ref="H75" r:id="rId19"/>
+    <hyperlink ref="H77" r:id="rId20"/>
+    <hyperlink ref="H79" r:id="rId21"/>
+    <hyperlink ref="H81" r:id="rId22"/>
+    <hyperlink ref="H84" r:id="rId23"/>
+    <hyperlink ref="H86" r:id="rId24"/>
+    <hyperlink ref="H90" r:id="rId25"/>
+    <hyperlink ref="H93" r:id="rId26"/>
+    <hyperlink ref="H95" r:id="rId27"/>
+    <hyperlink ref="H97" r:id="rId28"/>
+    <hyperlink ref="H73" r:id="rId29"/>
+    <hyperlink ref="H69" r:id="rId30"/>
+    <hyperlink ref="H70" r:id="rId31"/>
+    <hyperlink ref="H82" r:id="rId32"/>
+    <hyperlink ref="H107" r:id="rId33"/>
+    <hyperlink ref="H111" r:id="rId34"/>
+    <hyperlink ref="H113" r:id="rId35"/>
+    <hyperlink ref="H115" r:id="rId36"/>
+    <hyperlink ref="H117" r:id="rId37"/>
+    <hyperlink ref="H119" r:id="rId38"/>
+    <hyperlink ref="H120" r:id="rId39"/>
+    <hyperlink ref="H121" r:id="rId40"/>
+    <hyperlink ref="H122" r:id="rId41"/>
+    <hyperlink ref="H123" r:id="rId42"/>
+    <hyperlink ref="H124" r:id="rId43"/>
+    <hyperlink ref="H125:H128" r:id="rId44" display="http://mediwarecloud.com"/>
+    <hyperlink ref="H129" r:id="rId45"/>
+    <hyperlink ref="H133" r:id="rId46"/>
+    <hyperlink ref="H134" r:id="rId47"/>
+    <hyperlink ref="H135" r:id="rId48"/>
+    <hyperlink ref="H138" r:id="rId49"/>
+    <hyperlink ref="H139" r:id="rId50"/>
+    <hyperlink ref="H141" r:id="rId51"/>
+    <hyperlink ref="H142" r:id="rId52"/>
+    <hyperlink ref="H146" r:id="rId53"/>
+    <hyperlink ref="H179" r:id="rId54" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H177" r:id="rId55"/>
+    <hyperlink ref="H170" r:id="rId56" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H175" r:id="rId57" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H164" r:id="rId58" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H167" r:id="rId59" display="http://mediwarecloud.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId60"/>
